--- a/06_Daejeon/Daejeon_worksheet.xlsx
+++ b/06_Daejeon/Daejeon_worksheet.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://postechackr-my.sharepoint.com/personal/kmcho_postech_ac_kr/Documents/바탕 화면/2022_1_Semester/Research Project_I_CSED499I/python_approach/Redistricting_Project/06_Daejeon/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://postechackr-my.sharepoint.com/personal/kmcho_postech_ac_kr/Documents/바탕 화면/2022_2_Semester/Research_Project_II_CSED499II/06_Daejeon/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F7A302BF-B148-4A5C-ADCD-07C9CF87491C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="8_{F7A302BF-B148-4A5C-ADCD-07C9CF87491C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AE5D9F62-7A1E-45AE-87B8-1FA8FE838028}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7178C8FF-9698-45AF-B568-1710E7D56F1A}"/>
   </bookViews>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5106" uniqueCount="1266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5106" uniqueCount="1267">
   <si>
     <t>BASE_DATE</t>
   </si>
@@ -1834,9 +1834,6 @@
     <t>3023061000</t>
   </si>
   <si>
-    <t>admin_neighbor</t>
-  </si>
-  <si>
     <t>3020058000, 3020060000, 3023056000, 3023057000, 3023058000</t>
   </si>
   <si>
@@ -2690,9 +2687,6 @@
   </si>
   <si>
     <t>(2022_03 population data)</t>
-  </si>
-  <si>
-    <t>population</t>
   </si>
   <si>
     <t/>
@@ -3875,6 +3869,15 @@
   </si>
   <si>
     <t>yCentroids</t>
+  </si>
+  <si>
+    <t>Neighbors</t>
+  </si>
+  <si>
+    <t>Admin_Neighbors</t>
+  </si>
+  <si>
+    <t>Population</t>
   </si>
 </sst>
 </file>
@@ -4423,7 +4426,7 @@
   <dimension ref="A1:AA209"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4461,31 +4464,31 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>1262</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>1263</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>1264</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>1265</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>589</v>
-      </c>
       <c r="J1" s="12" t="s">
-        <v>875</v>
+        <v>1266</v>
       </c>
       <c r="K1" s="12" t="s">
+        <v>1258</v>
+      </c>
+      <c r="L1" s="12" t="s">
+        <v>1259</v>
+      </c>
+      <c r="M1" s="12" t="s">
         <v>1260</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="N1" s="12" t="s">
         <v>1261</v>
-      </c>
-      <c r="M1" s="12" t="s">
-        <v>1262</v>
-      </c>
-      <c r="N1" s="12" t="s">
-        <v>1263</v>
       </c>
       <c r="O1" s="12"/>
       <c r="P1" s="2" t="s">
@@ -4501,22 +4504,22 @@
         <v>163</v>
       </c>
       <c r="U1" t="s">
+        <v>872</v>
+      </c>
+      <c r="V1" t="s">
+        <v>870</v>
+      </c>
+      <c r="W1" t="s">
+        <v>871</v>
+      </c>
+      <c r="X1" t="s">
+        <v>872</v>
+      </c>
+      <c r="Y1" t="s">
         <v>873</v>
       </c>
-      <c r="V1" t="s">
+      <c r="Z1" t="s">
         <v>871</v>
-      </c>
-      <c r="W1" t="s">
-        <v>872</v>
-      </c>
-      <c r="X1" t="s">
-        <v>873</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>874</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>872</v>
       </c>
     </row>
     <row r="2" spans="1:27" ht="30">
@@ -4546,7 +4549,7 @@
         <v>156</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="J2" s="12">
         <f t="shared" ref="J2:J33" si="1">VLOOKUP(C2,T$2:U$88,2,FALSE)</f>
@@ -4591,13 +4594,13 @@
         <v>3023051000</v>
       </c>
       <c r="W2" t="s">
+        <v>846</v>
+      </c>
+      <c r="X2" t="s">
         <v>847</v>
       </c>
-      <c r="X2" t="s">
-        <v>848</v>
-      </c>
       <c r="Z2" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="AA2" s="15" t="str">
         <f t="shared" ref="AA2:AA33" si="2">RIGHT(Z2,LEN(Z2) - SEARCH(" ", Z2, SEARCH(" ", Z2) + 1))</f>
@@ -4631,7 +4634,7 @@
         <v>162</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="J3" s="12">
         <f t="shared" si="1"/>
@@ -4676,13 +4679,13 @@
         <v>3023053300</v>
       </c>
       <c r="W3" t="s">
+        <v>852</v>
+      </c>
+      <c r="X3" t="s">
         <v>853</v>
       </c>
-      <c r="X3" t="s">
-        <v>854</v>
-      </c>
       <c r="Z3" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="AA3" s="15" t="str">
         <f t="shared" si="2"/>
@@ -4716,7 +4719,7 @@
         <v>150</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="J4" s="12">
         <f t="shared" si="1"/>
@@ -4761,13 +4764,13 @@
         <v>3020060000</v>
       </c>
       <c r="W4" t="s">
+        <v>840</v>
+      </c>
+      <c r="X4" t="s">
         <v>841</v>
       </c>
-      <c r="X4" t="s">
-        <v>842</v>
-      </c>
       <c r="Z4" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="AA4" s="15" t="str">
         <f t="shared" si="2"/>
@@ -4801,7 +4804,7 @@
         <v>152</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="J5" s="12">
         <f t="shared" si="1"/>
@@ -4846,13 +4849,13 @@
         <v>3020061000</v>
       </c>
       <c r="W5" t="s">
+        <v>842</v>
+      </c>
+      <c r="X5" t="s">
         <v>843</v>
       </c>
-      <c r="X5" t="s">
-        <v>844</v>
-      </c>
       <c r="Z5" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="AA5" s="15" t="str">
         <f t="shared" si="2"/>
@@ -4886,7 +4889,7 @@
         <v>142</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="J6" s="12">
         <f t="shared" si="1"/>
@@ -4931,13 +4934,13 @@
         <v>3020054800</v>
       </c>
       <c r="W6" t="s">
+        <v>832</v>
+      </c>
+      <c r="X6" t="s">
         <v>833</v>
       </c>
-      <c r="X6" t="s">
-        <v>834</v>
-      </c>
       <c r="Z6" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="AA6" s="15" t="str">
         <f t="shared" si="2"/>
@@ -4971,7 +4974,7 @@
         <v>140</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="J7" s="12">
         <f t="shared" si="1"/>
@@ -5016,13 +5019,13 @@
         <v>3020054700</v>
       </c>
       <c r="W7" t="s">
+        <v>830</v>
+      </c>
+      <c r="X7" t="s">
         <v>831</v>
       </c>
-      <c r="X7" t="s">
-        <v>832</v>
-      </c>
       <c r="Z7" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="AA7" s="15" t="str">
         <f t="shared" si="2"/>
@@ -5056,7 +5059,7 @@
         <v>144</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="J8" s="12">
         <f t="shared" si="1"/>
@@ -5101,13 +5104,13 @@
         <v>3020055000</v>
       </c>
       <c r="W8" t="s">
+        <v>834</v>
+      </c>
+      <c r="X8" t="s">
         <v>835</v>
       </c>
-      <c r="X8" t="s">
-        <v>836</v>
-      </c>
       <c r="Z8" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="AA8" s="15" t="str">
         <f t="shared" si="2"/>
@@ -5141,7 +5144,7 @@
         <v>136</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="J9" s="12">
         <f t="shared" si="1"/>
@@ -5186,13 +5189,13 @@
         <v>3020054000</v>
       </c>
       <c r="W9" t="s">
+        <v>826</v>
+      </c>
+      <c r="X9" t="s">
         <v>827</v>
       </c>
-      <c r="X9" t="s">
-        <v>828</v>
-      </c>
       <c r="Z9" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="AA9" s="15" t="str">
         <f t="shared" si="2"/>
@@ -5226,7 +5229,7 @@
         <v>126</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="J10" s="12">
         <f t="shared" si="1"/>
@@ -5262,7 +5265,7 @@
         <v>3011067000</v>
       </c>
       <c r="T10" s="15" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="U10" s="14">
         <v>351989</v>
@@ -5271,13 +5274,13 @@
         <v>3020000000</v>
       </c>
       <c r="W10" t="s">
+        <v>816</v>
+      </c>
+      <c r="X10" t="s">
         <v>817</v>
       </c>
-      <c r="X10" t="s">
-        <v>818</v>
-      </c>
       <c r="Z10" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="AA10" s="15" t="str">
         <f t="shared" si="2"/>
@@ -5311,7 +5314,7 @@
         <v>148</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="J11" s="12">
         <f t="shared" si="1"/>
@@ -5356,13 +5359,13 @@
         <v>3020058000</v>
       </c>
       <c r="W11" t="s">
+        <v>838</v>
+      </c>
+      <c r="X11" t="s">
         <v>839</v>
       </c>
-      <c r="X11" t="s">
-        <v>840</v>
-      </c>
       <c r="Z11" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="AA11" s="15" t="str">
         <f t="shared" si="2"/>
@@ -5396,7 +5399,7 @@
         <v>158</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="J12" s="12">
         <f t="shared" si="1"/>
@@ -5441,13 +5444,13 @@
         <v>3023052000</v>
       </c>
       <c r="W12" t="s">
+        <v>848</v>
+      </c>
+      <c r="X12" t="s">
         <v>849</v>
       </c>
-      <c r="X12" t="s">
-        <v>850</v>
-      </c>
       <c r="Z12" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="AA12" s="15" t="str">
         <f t="shared" si="2"/>
@@ -5481,7 +5484,7 @@
         <v>138</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="J13" s="12">
         <f t="shared" si="1"/>
@@ -5526,13 +5529,13 @@
         <v>3020054600</v>
       </c>
       <c r="W13" t="s">
+        <v>828</v>
+      </c>
+      <c r="X13" t="s">
         <v>829</v>
       </c>
-      <c r="X13" t="s">
-        <v>830</v>
-      </c>
       <c r="Z13" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="AA13" s="15" t="str">
         <f t="shared" si="2"/>
@@ -5566,7 +5569,7 @@
         <v>160</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="J14" s="12">
         <f t="shared" si="1"/>
@@ -5611,13 +5614,13 @@
         <v>3023052500</v>
       </c>
       <c r="W14" t="s">
+        <v>850</v>
+      </c>
+      <c r="X14" t="s">
         <v>851</v>
       </c>
-      <c r="X14" t="s">
-        <v>852</v>
-      </c>
       <c r="Z14" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="AA14" s="15" t="str">
         <f t="shared" si="2"/>
@@ -5651,7 +5654,7 @@
         <v>146</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="J15" s="12">
         <f t="shared" si="1"/>
@@ -5696,13 +5699,13 @@
         <v>3020057000</v>
       </c>
       <c r="W15" t="s">
+        <v>836</v>
+      </c>
+      <c r="X15" t="s">
         <v>837</v>
       </c>
-      <c r="X15" t="s">
-        <v>838</v>
-      </c>
       <c r="Z15" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="AA15" s="15" t="str">
         <f t="shared" si="2"/>
@@ -5736,7 +5739,7 @@
         <v>134</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="J16" s="12">
         <f t="shared" si="1"/>
@@ -5781,13 +5784,13 @@
         <v>3020053000</v>
       </c>
       <c r="W16" t="s">
+        <v>824</v>
+      </c>
+      <c r="X16" t="s">
         <v>825</v>
       </c>
-      <c r="X16" t="s">
-        <v>826</v>
-      </c>
       <c r="Z16" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="AA16" s="15" t="str">
         <f t="shared" si="2"/>
@@ -5821,7 +5824,7 @@
         <v>132</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="J17" s="12">
         <f t="shared" si="1"/>
@@ -5866,13 +5869,13 @@
         <v>3020052700</v>
       </c>
       <c r="W17" t="s">
+        <v>822</v>
+      </c>
+      <c r="X17" t="s">
         <v>823</v>
       </c>
-      <c r="X17" t="s">
-        <v>824</v>
-      </c>
       <c r="Z17" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="AA17" s="15" t="str">
         <f t="shared" si="2"/>
@@ -5906,7 +5909,7 @@
         <v>88</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="J18" s="12">
         <f t="shared" si="1"/>
@@ -5951,13 +5954,13 @@
         <v>3017054000</v>
       </c>
       <c r="W18" t="s">
+        <v>778</v>
+      </c>
+      <c r="X18" t="s">
         <v>779</v>
       </c>
-      <c r="X18" t="s">
-        <v>780</v>
-      </c>
       <c r="Z18" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="AA18" s="15" t="str">
         <f t="shared" si="2"/>
@@ -5991,7 +5994,7 @@
         <v>114</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="J19" s="12">
         <f t="shared" si="1"/>
@@ -6036,13 +6039,13 @@
         <v>3017059700</v>
       </c>
       <c r="W19" t="s">
+        <v>804</v>
+      </c>
+      <c r="X19" t="s">
         <v>805</v>
       </c>
-      <c r="X19" t="s">
-        <v>806</v>
-      </c>
       <c r="Z19" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="AA19" s="15" t="str">
         <f t="shared" si="2"/>
@@ -6076,7 +6079,7 @@
         <v>30</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="J20" s="12">
         <f t="shared" si="1"/>
@@ -6121,13 +6124,13 @@
         <v>3011064000</v>
       </c>
       <c r="W20" t="s">
+        <v>720</v>
+      </c>
+      <c r="X20" t="s">
         <v>721</v>
       </c>
-      <c r="X20" t="s">
-        <v>722</v>
-      </c>
       <c r="Z20" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="AA20" s="15" t="str">
         <f t="shared" si="2"/>
@@ -6161,7 +6164,7 @@
         <v>90</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="J21" s="12">
         <f t="shared" si="1"/>
@@ -6206,13 +6209,13 @@
         <v>3017055000</v>
       </c>
       <c r="W21" t="s">
+        <v>780</v>
+      </c>
+      <c r="X21" t="s">
         <v>781</v>
       </c>
-      <c r="X21" t="s">
-        <v>782</v>
-      </c>
       <c r="Z21" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="AA21" s="15" t="str">
         <f t="shared" si="2"/>
@@ -6246,7 +6249,7 @@
         <v>154</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="J22" s="12">
         <f t="shared" si="1"/>
@@ -6282,7 +6285,7 @@
         <v>3014060500</v>
       </c>
       <c r="T22" s="15" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="U22" s="14">
         <v>175294</v>
@@ -6291,13 +6294,13 @@
         <v>3023000000</v>
       </c>
       <c r="W22" t="s">
+        <v>844</v>
+      </c>
+      <c r="X22" t="s">
         <v>845</v>
       </c>
-      <c r="X22" t="s">
-        <v>846</v>
-      </c>
       <c r="Z22" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="AA22" s="15" t="str">
         <f t="shared" si="2"/>
@@ -6331,7 +6334,7 @@
         <v>92</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="J23" s="12">
         <f t="shared" si="1"/>
@@ -6376,13 +6379,13 @@
         <v>3017055500</v>
       </c>
       <c r="W23" t="s">
+        <v>782</v>
+      </c>
+      <c r="X23" t="s">
         <v>783</v>
       </c>
-      <c r="X23" t="s">
-        <v>784</v>
-      </c>
       <c r="Z23" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="AA23" s="15" t="str">
         <f t="shared" si="2"/>
@@ -6416,7 +6419,7 @@
         <v>86</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="J24" s="12">
         <f t="shared" si="1"/>
@@ -6461,13 +6464,13 @@
         <v>3017053500</v>
       </c>
       <c r="W24" t="s">
+        <v>776</v>
+      </c>
+      <c r="X24" t="s">
         <v>777</v>
       </c>
-      <c r="X24" t="s">
-        <v>778</v>
-      </c>
       <c r="Z24" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="AA24" s="15" t="str">
         <f t="shared" si="2"/>
@@ -6501,7 +6504,7 @@
         <v>112</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="J25" s="12">
         <f t="shared" si="1"/>
@@ -6546,13 +6549,13 @@
         <v>3017059600</v>
       </c>
       <c r="W25" t="s">
+        <v>802</v>
+      </c>
+      <c r="X25" t="s">
         <v>803</v>
       </c>
-      <c r="X25" t="s">
-        <v>804</v>
-      </c>
       <c r="Z25" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="AA25" s="15" t="str">
         <f t="shared" si="2"/>
@@ -6586,7 +6589,7 @@
         <v>84</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="J26" s="12">
         <f t="shared" si="1"/>
@@ -6631,13 +6634,13 @@
         <v>3017053000</v>
       </c>
       <c r="W26" t="s">
+        <v>774</v>
+      </c>
+      <c r="X26" t="s">
         <v>775</v>
       </c>
-      <c r="X26" t="s">
-        <v>776</v>
-      </c>
       <c r="Z26" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="AA26" s="15" t="str">
         <f t="shared" si="2"/>
@@ -6671,7 +6674,7 @@
         <v>96</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="J27" s="12">
         <f t="shared" si="1"/>
@@ -6716,13 +6719,13 @@
         <v>3017057000</v>
       </c>
       <c r="W27" t="s">
+        <v>786</v>
+      </c>
+      <c r="X27" t="s">
         <v>787</v>
       </c>
-      <c r="X27" t="s">
-        <v>788</v>
-      </c>
       <c r="Z27" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="AA27" s="15" t="str">
         <f t="shared" si="2"/>
@@ -6756,7 +6759,7 @@
         <v>98</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="J28" s="12">
         <f t="shared" si="1"/>
@@ -6801,13 +6804,13 @@
         <v>3017057500</v>
       </c>
       <c r="W28" t="s">
+        <v>788</v>
+      </c>
+      <c r="X28" t="s">
         <v>789</v>
       </c>
-      <c r="X28" t="s">
-        <v>790</v>
-      </c>
       <c r="Z28" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="AA28" s="15" t="str">
         <f t="shared" si="2"/>
@@ -6841,7 +6844,7 @@
         <v>104</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="J29" s="12">
         <f t="shared" si="1"/>
@@ -6884,13 +6887,13 @@
         <v>3017058600</v>
       </c>
       <c r="W29" t="s">
+        <v>794</v>
+      </c>
+      <c r="X29" t="s">
         <v>795</v>
       </c>
-      <c r="X29" t="s">
-        <v>796</v>
-      </c>
       <c r="Z29" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="AA29" s="15" t="str">
         <f t="shared" si="2"/>
@@ -6924,7 +6927,7 @@
         <v>106</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="J30" s="12">
         <f t="shared" si="1"/>
@@ -6969,13 +6972,13 @@
         <v>3017058700</v>
       </c>
       <c r="W30" t="s">
+        <v>796</v>
+      </c>
+      <c r="X30" t="s">
         <v>797</v>
       </c>
-      <c r="X30" t="s">
-        <v>798</v>
-      </c>
       <c r="Z30" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="AA30" s="15" t="str">
         <f t="shared" si="2"/>
@@ -7009,7 +7012,7 @@
         <v>110</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="J31" s="12">
         <f t="shared" si="1"/>
@@ -7054,13 +7057,13 @@
         <v>3017059000</v>
       </c>
       <c r="W31" t="s">
+        <v>800</v>
+      </c>
+      <c r="X31" t="s">
         <v>801</v>
       </c>
-      <c r="X31" t="s">
-        <v>802</v>
-      </c>
       <c r="Z31" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="AA31" s="15" t="str">
         <f t="shared" si="2"/>
@@ -7094,7 +7097,7 @@
         <v>94</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="J32" s="12">
         <f t="shared" si="1"/>
@@ -7139,13 +7142,13 @@
         <v>3017056000</v>
       </c>
       <c r="W32" t="s">
+        <v>784</v>
+      </c>
+      <c r="X32" t="s">
         <v>785</v>
       </c>
-      <c r="X32" t="s">
-        <v>786</v>
-      </c>
       <c r="Z32" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="AA32" s="15" t="str">
         <f t="shared" si="2"/>
@@ -7179,7 +7182,7 @@
         <v>108</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="J33" s="12">
         <f t="shared" si="1"/>
@@ -7224,13 +7227,13 @@
         <v>3017058800</v>
       </c>
       <c r="W33" t="s">
+        <v>798</v>
+      </c>
+      <c r="X33" t="s">
         <v>799</v>
       </c>
-      <c r="X33" t="s">
-        <v>800</v>
-      </c>
       <c r="Z33" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="AA33" s="15" t="str">
         <f t="shared" si="2"/>
@@ -7264,7 +7267,7 @@
         <v>102</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="J34" s="12">
         <f t="shared" ref="J34:J65" si="4">VLOOKUP(C34,T$2:U$88,2,FALSE)</f>
@@ -7309,13 +7312,13 @@
         <v>3017058200</v>
       </c>
       <c r="W34" t="s">
+        <v>792</v>
+      </c>
+      <c r="X34" t="s">
         <v>793</v>
       </c>
-      <c r="X34" t="s">
-        <v>794</v>
-      </c>
       <c r="Z34" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="AA34" s="15" t="str">
         <f t="shared" ref="AA34:AA65" si="5">RIGHT(Z34,LEN(Z34) - SEARCH(" ", Z34, SEARCH(" ", Z34) + 1))</f>
@@ -7349,7 +7352,7 @@
         <v>82</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="J35" s="12">
         <f t="shared" si="4"/>
@@ -7394,13 +7397,13 @@
         <v>3017052000</v>
       </c>
       <c r="W35" t="s">
+        <v>772</v>
+      </c>
+      <c r="X35" t="s">
         <v>773</v>
       </c>
-      <c r="X35" t="s">
-        <v>774</v>
-      </c>
       <c r="Z35" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="AA35" s="15" t="str">
         <f t="shared" si="5"/>
@@ -7434,7 +7437,7 @@
         <v>100</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="J36" s="12">
         <f t="shared" si="4"/>
@@ -7479,13 +7482,13 @@
         <v>3017058100</v>
       </c>
       <c r="W36" t="s">
+        <v>790</v>
+      </c>
+      <c r="X36" t="s">
         <v>791</v>
       </c>
-      <c r="X36" t="s">
-        <v>792</v>
-      </c>
       <c r="Z36" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AA36" s="15" t="str">
         <f t="shared" si="5"/>
@@ -7519,7 +7522,7 @@
         <v>60</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="J37" s="12">
         <f t="shared" si="4"/>
@@ -7564,13 +7567,13 @@
         <v>3014065500</v>
       </c>
       <c r="W37" t="s">
+        <v>750</v>
+      </c>
+      <c r="X37" t="s">
         <v>751</v>
       </c>
-      <c r="X37" t="s">
-        <v>752</v>
-      </c>
       <c r="Z37" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="AA37" s="15" t="str">
         <f t="shared" si="5"/>
@@ -7604,7 +7607,7 @@
         <v>42</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="J38" s="12">
         <f t="shared" si="4"/>
@@ -7640,7 +7643,7 @@
         <v>3017053500</v>
       </c>
       <c r="T38" s="15" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="U38" s="14">
         <v>229497</v>
@@ -7649,13 +7652,13 @@
         <v>3014000000</v>
       </c>
       <c r="W38" t="s">
+        <v>732</v>
+      </c>
+      <c r="X38" t="s">
         <v>733</v>
       </c>
-      <c r="X38" t="s">
-        <v>734</v>
-      </c>
       <c r="Z38" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="AA38" s="15" t="str">
         <f t="shared" si="5"/>
@@ -7689,7 +7692,7 @@
         <v>72</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="J39" s="12">
         <f t="shared" si="4"/>
@@ -7734,13 +7737,13 @@
         <v>3014072000</v>
       </c>
       <c r="W39" t="s">
+        <v>762</v>
+      </c>
+      <c r="X39" t="s">
         <v>763</v>
       </c>
-      <c r="X39" t="s">
-        <v>764</v>
-      </c>
       <c r="Z39" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="AA39" s="15" t="str">
         <f t="shared" si="5"/>
@@ -7774,7 +7777,7 @@
         <v>78</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="J40" s="12">
         <f t="shared" si="4"/>
@@ -7810,7 +7813,7 @@
         <v>3017055000</v>
       </c>
       <c r="T40" s="15" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="U40" s="14">
         <v>472417</v>
@@ -7819,13 +7822,13 @@
         <v>3017000000</v>
       </c>
       <c r="W40" t="s">
+        <v>768</v>
+      </c>
+      <c r="X40" t="s">
         <v>769</v>
       </c>
-      <c r="X40" t="s">
-        <v>770</v>
-      </c>
       <c r="Z40" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="AA40" s="15" t="str">
         <f t="shared" si="5"/>
@@ -7859,7 +7862,7 @@
         <v>32</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="J41" s="12">
         <f t="shared" si="4"/>
@@ -7904,13 +7907,13 @@
         <v>3011066500</v>
       </c>
       <c r="W41" t="s">
+        <v>722</v>
+      </c>
+      <c r="X41" t="s">
         <v>723</v>
       </c>
-      <c r="X41" t="s">
-        <v>724</v>
-      </c>
       <c r="Z41" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="AA41" s="15" t="str">
         <f t="shared" si="5"/>
@@ -7944,7 +7947,7 @@
         <v>28</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="J42" s="12">
         <f t="shared" si="4"/>
@@ -7989,13 +7992,13 @@
         <v>3011063000</v>
       </c>
       <c r="W42" t="s">
+        <v>718</v>
+      </c>
+      <c r="X42" t="s">
         <v>719</v>
       </c>
-      <c r="X42" t="s">
-        <v>720</v>
-      </c>
       <c r="Z42" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="AA42" s="15" t="str">
         <f t="shared" si="5"/>
@@ -8029,7 +8032,7 @@
         <v>50</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="J43" s="12">
         <f t="shared" si="4"/>
@@ -8074,13 +8077,13 @@
         <v>3014057500</v>
       </c>
       <c r="W43" t="s">
+        <v>740</v>
+      </c>
+      <c r="X43" t="s">
         <v>741</v>
       </c>
-      <c r="X43" t="s">
-        <v>742</v>
-      </c>
       <c r="Z43" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="AA43" s="15" t="str">
         <f t="shared" si="5"/>
@@ -8114,7 +8117,7 @@
         <v>76</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="J44" s="12">
         <f t="shared" si="4"/>
@@ -8159,13 +8162,13 @@
         <v>3014074000</v>
       </c>
       <c r="W44" t="s">
+        <v>766</v>
+      </c>
+      <c r="X44" t="s">
         <v>767</v>
       </c>
-      <c r="X44" t="s">
-        <v>768</v>
-      </c>
       <c r="Z44" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="AA44" s="15" t="str">
         <f t="shared" si="5"/>
@@ -8199,7 +8202,7 @@
         <v>80</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="J45" s="12">
         <f t="shared" si="4"/>
@@ -8244,13 +8247,13 @@
         <v>3017051000</v>
       </c>
       <c r="W45" t="s">
+        <v>770</v>
+      </c>
+      <c r="X45" t="s">
         <v>771</v>
       </c>
-      <c r="X45" t="s">
-        <v>772</v>
-      </c>
       <c r="Z45" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="AA45" s="15" t="str">
         <f t="shared" si="5"/>
@@ -8284,7 +8287,7 @@
         <v>70</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="J46" s="12">
         <f t="shared" si="4"/>
@@ -8329,13 +8332,13 @@
         <v>3014071000</v>
       </c>
       <c r="W46" t="s">
+        <v>760</v>
+      </c>
+      <c r="X46" t="s">
         <v>761</v>
       </c>
-      <c r="X46" t="s">
-        <v>762</v>
-      </c>
       <c r="Z46" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="AA46" s="15" t="str">
         <f t="shared" si="5"/>
@@ -8369,7 +8372,7 @@
         <v>68</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="J47" s="12">
         <f t="shared" si="4"/>
@@ -8414,13 +8417,13 @@
         <v>3014070000</v>
       </c>
       <c r="W47" t="s">
+        <v>758</v>
+      </c>
+      <c r="X47" t="s">
         <v>759</v>
       </c>
-      <c r="X47" t="s">
-        <v>760</v>
-      </c>
       <c r="Z47" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="AA47" s="15" t="str">
         <f t="shared" si="5"/>
@@ -8454,7 +8457,7 @@
         <v>74</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="J48" s="12">
         <f t="shared" si="4"/>
@@ -8499,13 +8502,13 @@
         <v>3014073000</v>
       </c>
       <c r="W48" t="s">
+        <v>764</v>
+      </c>
+      <c r="X48" t="s">
         <v>765</v>
       </c>
-      <c r="X48" t="s">
-        <v>766</v>
-      </c>
       <c r="Z48" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="AA48" s="15" t="str">
         <f t="shared" si="5"/>
@@ -8539,7 +8542,7 @@
         <v>64</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="J49" s="12">
         <f t="shared" si="4"/>
@@ -8584,13 +8587,13 @@
         <v>3014068000</v>
       </c>
       <c r="W49" t="s">
+        <v>754</v>
+      </c>
+      <c r="X49" t="s">
         <v>755</v>
       </c>
-      <c r="X49" t="s">
-        <v>756</v>
-      </c>
       <c r="Z49" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="AA49" s="15" t="str">
         <f t="shared" si="5"/>
@@ -8624,7 +8627,7 @@
         <v>54</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="J50" s="12">
         <f t="shared" si="4"/>
@@ -8669,13 +8672,13 @@
         <v>3014062000</v>
       </c>
       <c r="W50" t="s">
+        <v>744</v>
+      </c>
+      <c r="X50" t="s">
         <v>745</v>
       </c>
-      <c r="X50" t="s">
-        <v>746</v>
-      </c>
       <c r="Z50" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="AA50" s="15" t="str">
         <f t="shared" si="5"/>
@@ -8709,7 +8712,7 @@
         <v>66</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="J51" s="12">
         <f t="shared" si="4"/>
@@ -8754,13 +8757,13 @@
         <v>3014069000</v>
       </c>
       <c r="W51" t="s">
+        <v>756</v>
+      </c>
+      <c r="X51" t="s">
         <v>757</v>
       </c>
-      <c r="X51" t="s">
-        <v>758</v>
-      </c>
       <c r="Z51" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="AA51" s="15" t="str">
         <f t="shared" si="5"/>
@@ -8794,7 +8797,7 @@
         <v>48</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="J52" s="12">
         <f t="shared" si="4"/>
@@ -8839,13 +8842,13 @@
         <v>3014056000</v>
       </c>
       <c r="W52" t="s">
+        <v>738</v>
+      </c>
+      <c r="X52" t="s">
         <v>739</v>
       </c>
-      <c r="X52" t="s">
-        <v>740</v>
-      </c>
       <c r="Z52" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="AA52" s="15" t="str">
         <f t="shared" si="5"/>
@@ -8879,7 +8882,7 @@
         <v>58</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="J53" s="12">
         <f t="shared" si="4"/>
@@ -8924,13 +8927,13 @@
         <v>3014064000</v>
       </c>
       <c r="W53" t="s">
+        <v>748</v>
+      </c>
+      <c r="X53" t="s">
         <v>749</v>
       </c>
-      <c r="X53" t="s">
-        <v>750</v>
-      </c>
       <c r="Z53" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="AA53" s="15" t="str">
         <f t="shared" si="5"/>
@@ -8964,7 +8967,7 @@
         <v>36</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="J54" s="12">
         <f t="shared" si="4"/>
@@ -9009,13 +9012,13 @@
         <v>3011069500</v>
       </c>
       <c r="W54" t="s">
+        <v>726</v>
+      </c>
+      <c r="X54" t="s">
         <v>727</v>
       </c>
-      <c r="X54" t="s">
-        <v>728</v>
-      </c>
       <c r="Z54" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="AA54" s="15" t="str">
         <f t="shared" si="5"/>
@@ -9049,7 +9052,7 @@
         <v>34</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="J55" s="12">
         <f t="shared" si="4"/>
@@ -9094,13 +9097,13 @@
         <v>3011067000</v>
       </c>
       <c r="W55" t="s">
+        <v>724</v>
+      </c>
+      <c r="X55" t="s">
         <v>725</v>
       </c>
-      <c r="X55" t="s">
-        <v>726</v>
-      </c>
       <c r="Z55" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="AA55" s="15" t="str">
         <f t="shared" si="5"/>
@@ -9134,7 +9137,7 @@
         <v>40</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="J56" s="12">
         <f t="shared" si="4"/>
@@ -9179,13 +9182,13 @@
         <v>3011074000</v>
       </c>
       <c r="W56" t="s">
+        <v>730</v>
+      </c>
+      <c r="X56" t="s">
         <v>731</v>
       </c>
-      <c r="X56" t="s">
-        <v>732</v>
-      </c>
       <c r="Z56" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="AA56" s="15" t="str">
         <f t="shared" si="5"/>
@@ -9219,7 +9222,7 @@
         <v>26</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="J57" s="12">
         <f t="shared" si="4"/>
@@ -9264,13 +9267,13 @@
         <v>3011062000</v>
       </c>
       <c r="W57" t="s">
+        <v>716</v>
+      </c>
+      <c r="X57" t="s">
         <v>717</v>
       </c>
-      <c r="X57" t="s">
-        <v>718</v>
-      </c>
       <c r="Z57" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="AA57" s="15" t="str">
         <f t="shared" si="5"/>
@@ -9304,7 +9307,7 @@
         <v>38</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="J58" s="12">
         <f t="shared" si="4"/>
@@ -9349,13 +9352,13 @@
         <v>3011072500</v>
       </c>
       <c r="W58" t="s">
+        <v>728</v>
+      </c>
+      <c r="X58" t="s">
         <v>729</v>
       </c>
-      <c r="X58" t="s">
-        <v>730</v>
-      </c>
       <c r="Z58" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="AA58" s="15" t="str">
         <f t="shared" si="5"/>
@@ -9389,7 +9392,7 @@
         <v>52</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="J59" s="12">
         <f t="shared" si="4"/>
@@ -9434,13 +9437,13 @@
         <v>3014060500</v>
       </c>
       <c r="W59" t="s">
+        <v>742</v>
+      </c>
+      <c r="X59" t="s">
         <v>743</v>
       </c>
-      <c r="X59" t="s">
-        <v>744</v>
-      </c>
       <c r="Z59" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="AA59" s="15" t="str">
         <f t="shared" si="5"/>
@@ -9474,7 +9477,7 @@
         <v>46</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="J60" s="12">
         <f t="shared" si="4"/>
@@ -9519,13 +9522,13 @@
         <v>3014055000</v>
       </c>
       <c r="W60" t="s">
+        <v>736</v>
+      </c>
+      <c r="X60" t="s">
         <v>737</v>
       </c>
-      <c r="X60" t="s">
-        <v>738</v>
-      </c>
       <c r="Z60" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="AA60" s="15" t="str">
         <f t="shared" si="5"/>
@@ -9559,7 +9562,7 @@
         <v>20</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="J61" s="12">
         <f t="shared" si="4"/>
@@ -9604,13 +9607,13 @@
         <v>3011056000</v>
       </c>
       <c r="W61" t="s">
+        <v>710</v>
+      </c>
+      <c r="X61" t="s">
         <v>711</v>
       </c>
-      <c r="X61" t="s">
-        <v>712</v>
-      </c>
       <c r="Z61" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="AA61" s="15" t="str">
         <f t="shared" si="5"/>
@@ -9644,7 +9647,7 @@
         <v>24</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="J62" s="12">
         <f t="shared" si="4"/>
@@ -9689,13 +9692,13 @@
         <v>3011059000</v>
       </c>
       <c r="W62" t="s">
+        <v>714</v>
+      </c>
+      <c r="X62" t="s">
         <v>715</v>
       </c>
-      <c r="X62" t="s">
-        <v>716</v>
-      </c>
       <c r="Z62" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="AA62" s="15" t="str">
         <f t="shared" si="5"/>
@@ -9729,7 +9732,7 @@
         <v>16</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="J63" s="12">
         <f t="shared" si="4"/>
@@ -9774,13 +9777,13 @@
         <v>3011055100</v>
       </c>
       <c r="W63" t="s">
+        <v>706</v>
+      </c>
+      <c r="X63" t="s">
         <v>707</v>
       </c>
-      <c r="X63" t="s">
-        <v>708</v>
-      </c>
       <c r="Z63" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="AA63" s="15" t="str">
         <f t="shared" si="5"/>
@@ -9814,7 +9817,7 @@
         <v>22</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="J64" s="12">
         <f t="shared" si="4"/>
@@ -9859,13 +9862,13 @@
         <v>3011058500</v>
       </c>
       <c r="W64" t="s">
+        <v>712</v>
+      </c>
+      <c r="X64" t="s">
         <v>713</v>
       </c>
-      <c r="X64" t="s">
-        <v>714</v>
-      </c>
       <c r="Z64" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="AA64" s="15" t="str">
         <f t="shared" si="5"/>
@@ -9899,7 +9902,7 @@
         <v>62</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="J65" s="12">
         <f t="shared" si="4"/>
@@ -9944,13 +9947,13 @@
         <v>3014067000</v>
       </c>
       <c r="W65" t="s">
+        <v>752</v>
+      </c>
+      <c r="X65" t="s">
         <v>753</v>
       </c>
-      <c r="X65" t="s">
-        <v>754</v>
-      </c>
       <c r="Z65" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="AA65" s="15" t="str">
         <f t="shared" si="5"/>
@@ -9968,7 +9971,7 @@
         <v>55</v>
       </c>
       <c r="D66" s="1">
-        <f t="shared" ref="D66:D97" si="6">VLOOKUP(C66,P$2:Q$209,2, FALSE)</f>
+        <f t="shared" ref="D66:D80" si="6">VLOOKUP(C66,P$2:Q$209,2, FALSE)</f>
         <v>3020061000</v>
       </c>
       <c r="E66" s="1">
@@ -9984,7 +9987,7 @@
         <v>56</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="J66" s="12">
         <f t="shared" ref="J66:J80" si="7">VLOOKUP(C66,T$2:U$88,2,FALSE)</f>
@@ -10029,16 +10032,16 @@
         <v>3014063000</v>
       </c>
       <c r="W66" t="s">
+        <v>746</v>
+      </c>
+      <c r="X66" t="s">
         <v>747</v>
       </c>
-      <c r="X66" t="s">
-        <v>748</v>
-      </c>
       <c r="Z66" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="AA66" s="15" t="str">
-        <f t="shared" ref="AA66:AA97" si="8">RIGHT(Z66,LEN(Z66) - SEARCH(" ", Z66, SEARCH(" ", Z66) + 1))</f>
+        <f t="shared" ref="AA66:AA80" si="8">RIGHT(Z66,LEN(Z66) - SEARCH(" ", Z66, SEARCH(" ", Z66) + 1))</f>
         <v>대사동</v>
       </c>
     </row>
@@ -10069,7 +10072,7 @@
         <v>18</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="J67" s="12">
         <f t="shared" si="7"/>
@@ -10114,13 +10117,13 @@
         <v>3011055200</v>
       </c>
       <c r="W67" t="s">
+        <v>708</v>
+      </c>
+      <c r="X67" t="s">
         <v>709</v>
       </c>
-      <c r="X67" t="s">
-        <v>710</v>
-      </c>
       <c r="Z67" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="AA67" s="15" t="str">
         <f t="shared" si="8"/>
@@ -10154,7 +10157,7 @@
         <v>14</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="J68" s="12">
         <f t="shared" si="7"/>
@@ -10199,13 +10202,13 @@
         <v>3011054500</v>
       </c>
       <c r="W68" t="s">
+        <v>704</v>
+      </c>
+      <c r="X68" t="s">
         <v>705</v>
       </c>
-      <c r="X68" t="s">
-        <v>706</v>
-      </c>
       <c r="Z68" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="AA68" s="15" t="str">
         <f t="shared" si="8"/>
@@ -10239,7 +10242,7 @@
         <v>124</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="J69" s="12">
         <f t="shared" si="7"/>
@@ -10284,13 +10287,13 @@
         <v>3017066000</v>
       </c>
       <c r="W69" t="s">
+        <v>814</v>
+      </c>
+      <c r="X69" t="s">
         <v>815</v>
       </c>
-      <c r="X69" t="s">
-        <v>816</v>
-      </c>
       <c r="Z69" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="AA69" s="15" t="str">
         <f t="shared" si="8"/>
@@ -10324,7 +10327,7 @@
         <v>44</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="J70" s="12">
         <f t="shared" si="7"/>
@@ -10369,13 +10372,13 @@
         <v>3014053500</v>
       </c>
       <c r="W70" t="s">
+        <v>734</v>
+      </c>
+      <c r="X70" t="s">
         <v>735</v>
       </c>
-      <c r="X70" t="s">
-        <v>736</v>
-      </c>
       <c r="Z70" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="AA70" s="15" t="str">
         <f t="shared" si="8"/>
@@ -10409,7 +10412,7 @@
         <v>120</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="J71" s="12">
         <f t="shared" si="7"/>
@@ -10454,13 +10457,13 @@
         <v>3017064000</v>
       </c>
       <c r="W71" t="s">
+        <v>810</v>
+      </c>
+      <c r="X71" t="s">
         <v>811</v>
       </c>
-      <c r="X71" t="s">
-        <v>812</v>
-      </c>
       <c r="Z71" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="AA71" s="15" t="str">
         <f t="shared" si="8"/>
@@ -10494,7 +10497,7 @@
         <v>128</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="J72" s="12">
         <f t="shared" si="7"/>
@@ -10539,13 +10542,13 @@
         <v>3020052000</v>
       </c>
       <c r="W72" t="s">
+        <v>818</v>
+      </c>
+      <c r="X72" t="s">
         <v>819</v>
       </c>
-      <c r="X72" t="s">
-        <v>820</v>
-      </c>
       <c r="Z72" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="AA72" s="15" t="str">
         <f t="shared" si="8"/>
@@ -10579,7 +10582,7 @@
         <v>122</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="J73" s="12">
         <f t="shared" si="7"/>
@@ -10624,13 +10627,13 @@
         <v>3017065000</v>
       </c>
       <c r="W73" t="s">
+        <v>812</v>
+      </c>
+      <c r="X73" t="s">
         <v>813</v>
       </c>
-      <c r="X73" t="s">
-        <v>814</v>
-      </c>
       <c r="Z73" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="AA73" s="15" t="str">
         <f t="shared" si="8"/>
@@ -10664,7 +10667,7 @@
         <v>8</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="J74" s="12">
         <f t="shared" si="7"/>
@@ -10698,7 +10701,7 @@
         <v>3023060000</v>
       </c>
       <c r="T74" s="15" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="U74" s="14">
         <v>220860</v>
@@ -10707,13 +10710,13 @@
         <v>3011000000</v>
       </c>
       <c r="W74" t="s">
+        <v>698</v>
+      </c>
+      <c r="X74" t="s">
         <v>699</v>
       </c>
-      <c r="X74" t="s">
-        <v>700</v>
-      </c>
       <c r="Z74" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="AA74" s="15" t="str">
         <f t="shared" si="8"/>
@@ -10747,7 +10750,7 @@
         <v>118</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="J75" s="12">
         <f t="shared" si="7"/>
@@ -10792,13 +10795,13 @@
         <v>3017063000</v>
       </c>
       <c r="W75" t="s">
+        <v>808</v>
+      </c>
+      <c r="X75" t="s">
         <v>809</v>
       </c>
-      <c r="X75" t="s">
-        <v>810</v>
-      </c>
       <c r="Z75" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="AA75" s="15" t="str">
         <f t="shared" si="8"/>
@@ -10832,7 +10835,7 @@
         <v>116</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="J76" s="12">
         <f t="shared" si="7"/>
@@ -10877,13 +10880,13 @@
         <v>3017060000</v>
       </c>
       <c r="W76" t="s">
+        <v>806</v>
+      </c>
+      <c r="X76" t="s">
         <v>807</v>
       </c>
-      <c r="X76" t="s">
-        <v>808</v>
-      </c>
       <c r="Z76" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="AA76" s="15" t="str">
         <f t="shared" si="8"/>
@@ -10917,7 +10920,7 @@
         <v>6</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="J77" s="12">
         <f t="shared" si="7"/>
@@ -10951,7 +10954,7 @@
         <v>3023056000</v>
       </c>
       <c r="T77" s="15" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="U77" s="14">
         <v>1450057</v>
@@ -10960,13 +10963,13 @@
         <v>3000000000</v>
       </c>
       <c r="W77" t="s">
+        <v>696</v>
+      </c>
+      <c r="X77" t="s">
         <v>697</v>
       </c>
-      <c r="X77" t="s">
-        <v>698</v>
-      </c>
       <c r="Z77" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="AA77" s="15" t="str">
         <f t="shared" si="8"/>
@@ -11000,7 +11003,7 @@
         <v>10</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="J78" s="12">
         <f t="shared" si="7"/>
@@ -11045,13 +11048,13 @@
         <v>3011051500</v>
       </c>
       <c r="W78" t="s">
+        <v>700</v>
+      </c>
+      <c r="X78" t="s">
         <v>701</v>
       </c>
-      <c r="X78" t="s">
-        <v>702</v>
-      </c>
       <c r="Z78" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="AA78" s="15" t="str">
         <f t="shared" si="8"/>
@@ -11085,7 +11088,7 @@
         <v>12</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="J79" s="12">
         <f t="shared" si="7"/>
@@ -11130,13 +11133,13 @@
         <v>3011053000</v>
       </c>
       <c r="W79" t="s">
+        <v>702</v>
+      </c>
+      <c r="X79" t="s">
         <v>703</v>
       </c>
-      <c r="X79" t="s">
-        <v>704</v>
-      </c>
       <c r="Z79" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AA79" s="15" t="str">
         <f t="shared" si="8"/>
@@ -11170,7 +11173,7 @@
         <v>130</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="J80" s="12">
         <f t="shared" si="7"/>
@@ -11215,13 +11218,13 @@
         <v>3020052600</v>
       </c>
       <c r="W80" t="s">
+        <v>820</v>
+      </c>
+      <c r="X80" t="s">
         <v>821</v>
       </c>
-      <c r="X80" t="s">
-        <v>822</v>
-      </c>
       <c r="Z80" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="AA80" s="15" t="str">
         <f t="shared" si="8"/>
@@ -11243,13 +11246,13 @@
         <v>3023054300</v>
       </c>
       <c r="W81" t="s">
+        <v>854</v>
+      </c>
+      <c r="X81" t="s">
         <v>855</v>
       </c>
-      <c r="X81" t="s">
-        <v>856</v>
-      </c>
       <c r="Z81" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="AA81" s="15" t="str">
         <f t="shared" ref="AA81:AA88" si="9">RIGHT(Z81,LEN(Z81) - SEARCH(" ", Z81, SEARCH(" ", Z81) + 1))</f>
@@ -11273,13 +11276,13 @@
         <v>3023054600</v>
       </c>
       <c r="W82" t="s">
+        <v>856</v>
+      </c>
+      <c r="X82" t="s">
         <v>857</v>
       </c>
-      <c r="X82" t="s">
-        <v>858</v>
-      </c>
       <c r="Z82" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="AA82" s="15" t="str">
         <f t="shared" si="9"/>
@@ -11303,13 +11306,13 @@
         <v>3023055000</v>
       </c>
       <c r="W83" t="s">
+        <v>858</v>
+      </c>
+      <c r="X83" t="s">
         <v>859</v>
       </c>
-      <c r="X83" t="s">
-        <v>860</v>
-      </c>
       <c r="Z83" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="AA83" s="15" t="str">
         <f t="shared" si="9"/>
@@ -11333,13 +11336,13 @@
         <v>3023056000</v>
       </c>
       <c r="W84" t="s">
+        <v>860</v>
+      </c>
+      <c r="X84" t="s">
         <v>861</v>
       </c>
-      <c r="X84" t="s">
-        <v>862</v>
-      </c>
       <c r="Z84" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="AA84" s="15" t="str">
         <f t="shared" si="9"/>
@@ -11363,13 +11366,13 @@
         <v>3023057000</v>
       </c>
       <c r="W85" t="s">
+        <v>862</v>
+      </c>
+      <c r="X85" t="s">
         <v>863</v>
       </c>
-      <c r="X85" t="s">
-        <v>864</v>
-      </c>
       <c r="Z85" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="AA85" s="15" t="str">
         <f t="shared" si="9"/>
@@ -11393,13 +11396,13 @@
         <v>3023058000</v>
       </c>
       <c r="W86" t="s">
+        <v>864</v>
+      </c>
+      <c r="X86" t="s">
         <v>865</v>
       </c>
-      <c r="X86" t="s">
-        <v>866</v>
-      </c>
       <c r="Z86" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="AA86" s="15" t="str">
         <f t="shared" si="9"/>
@@ -11423,13 +11426,13 @@
         <v>3023060000</v>
       </c>
       <c r="W87" t="s">
+        <v>866</v>
+      </c>
+      <c r="X87" t="s">
         <v>867</v>
       </c>
-      <c r="X87" t="s">
-        <v>868</v>
-      </c>
       <c r="Z87" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="AA87" s="15" t="str">
         <f t="shared" si="9"/>
@@ -11453,13 +11456,13 @@
         <v>3023061000</v>
       </c>
       <c r="W88" t="s">
+        <v>868</v>
+      </c>
+      <c r="X88" t="s">
         <v>869</v>
       </c>
-      <c r="X88" t="s">
-        <v>870</v>
-      </c>
       <c r="Z88" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="AA88" s="15" t="str">
         <f t="shared" si="9"/>
@@ -12446,7 +12449,7 @@
   <dimension ref="A1:I555"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D541" sqref="D541"/>
+      <selection activeCell="E1" sqref="E1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12459,31 +12462,31 @@
   <sheetData>
     <row r="1" spans="1:9" ht="36">
       <c r="A1" s="16" t="s">
+        <v>875</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>876</v>
+      </c>
+      <c r="C1" s="16" t="s">
         <v>877</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="D1" s="16" t="s">
         <v>878</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="E1" s="16" t="s">
         <v>879</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="F1" s="16" t="s">
         <v>880</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="G1" s="17" t="s">
         <v>881</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="H1" s="17" t="s">
         <v>882</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="I1" s="17" t="s">
         <v>883</v>
-      </c>
-      <c r="H1" s="17" t="s">
-        <v>884</v>
-      </c>
-      <c r="I1" s="17" t="s">
-        <v>885</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -12491,13 +12494,13 @@
         <v>173</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="E2" s="20">
         <v>1233177</v>
@@ -12523,10 +12526,10 @@
         <v>176</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="E3" s="20">
         <v>192350</v>
@@ -12552,10 +12555,10 @@
         <v>176</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="E4" s="19">
         <v>371</v>
@@ -12581,10 +12584,10 @@
         <v>176</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="E5" s="20">
         <v>17542</v>
@@ -12610,10 +12613,10 @@
         <v>176</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="E6" s="19">
         <v>567</v>
@@ -12642,7 +12645,7 @@
         <v>137</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="E7" s="20">
         <v>4652</v>
@@ -12668,10 +12671,10 @@
         <v>176</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="E8" s="20">
         <v>1860</v>
@@ -12697,10 +12700,10 @@
         <v>176</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="E9" s="20">
         <v>1346</v>
@@ -12726,10 +12729,10 @@
         <v>176</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="E10" s="20">
         <v>1446</v>
@@ -12758,7 +12761,7 @@
         <v>159</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="E11" s="20">
         <v>11111</v>
@@ -12784,10 +12787,10 @@
         <v>176</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="E12" s="20">
         <v>4453</v>
@@ -12813,10 +12816,10 @@
         <v>176</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="E13" s="20">
         <v>1927</v>
@@ -12842,10 +12845,10 @@
         <v>176</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="E14" s="20">
         <v>2082</v>
@@ -12871,10 +12874,10 @@
         <v>176</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="E15" s="20">
         <v>1713</v>
@@ -12900,10 +12903,10 @@
         <v>176</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="E16" s="19">
         <v>936</v>
@@ -12932,7 +12935,7 @@
         <v>155</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="E17" s="20">
         <v>16846</v>
@@ -12958,10 +12961,10 @@
         <v>176</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="E18" s="20">
         <v>4614</v>
@@ -12987,10 +12990,10 @@
         <v>176</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="E19" s="20">
         <v>1751</v>
@@ -13016,10 +13019,10 @@
         <v>176</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D20" s="18" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="E20" s="20">
         <v>1842</v>
@@ -13045,10 +13048,10 @@
         <v>176</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D21" s="18" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="E21" s="20">
         <v>3080</v>
@@ -13074,10 +13077,10 @@
         <v>176</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D22" s="18" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="E22" s="20">
         <v>3067</v>
@@ -13103,10 +13106,10 @@
         <v>176</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D23" s="18" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="E23" s="20">
         <v>2492</v>
@@ -13135,7 +13138,7 @@
         <v>161</v>
       </c>
       <c r="D24" s="18" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="E24" s="20">
         <v>9576</v>
@@ -13161,10 +13164,10 @@
         <v>176</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D25" s="18" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="E25" s="20">
         <v>3243</v>
@@ -13190,10 +13193,10 @@
         <v>176</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D26" s="18" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="E26" s="20">
         <v>1858</v>
@@ -13219,10 +13222,10 @@
         <v>176</v>
       </c>
       <c r="C27" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D27" s="18" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="E27" s="20">
         <v>2400</v>
@@ -13248,10 +13251,10 @@
         <v>176</v>
       </c>
       <c r="C28" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D28" s="18" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="E28" s="20">
         <v>2075</v>
@@ -13280,7 +13283,7 @@
         <v>149</v>
       </c>
       <c r="D29" s="18" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="E29" s="20">
         <v>8210</v>
@@ -13306,10 +13309,10 @@
         <v>176</v>
       </c>
       <c r="C30" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D30" s="18" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="E30" s="20">
         <v>3057</v>
@@ -13335,10 +13338,10 @@
         <v>176</v>
       </c>
       <c r="C31" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D31" s="18" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="E31" s="20">
         <v>1375</v>
@@ -13364,10 +13367,10 @@
         <v>176</v>
       </c>
       <c r="C32" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D32" s="18" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="E32" s="20">
         <v>1637</v>
@@ -13393,10 +13396,10 @@
         <v>176</v>
       </c>
       <c r="C33" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D33" s="18" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="E33" s="20">
         <v>2141</v>
@@ -13425,7 +13428,7 @@
         <v>151</v>
       </c>
       <c r="D34" s="18" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="E34" s="20">
         <v>16468</v>
@@ -13451,10 +13454,10 @@
         <v>176</v>
       </c>
       <c r="C35" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D35" s="18" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="E35" s="20">
         <v>4855</v>
@@ -13480,10 +13483,10 @@
         <v>176</v>
       </c>
       <c r="C36" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D36" s="18" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="E36" s="20">
         <v>1588</v>
@@ -13509,10 +13512,10 @@
         <v>176</v>
       </c>
       <c r="C37" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D37" s="18" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="E37" s="20">
         <v>1987</v>
@@ -13538,10 +13541,10 @@
         <v>176</v>
       </c>
       <c r="C38" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D38" s="18" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="E38" s="20">
         <v>2997</v>
@@ -13567,10 +13570,10 @@
         <v>176</v>
       </c>
       <c r="C39" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D39" s="18" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="E39" s="20">
         <v>2409</v>
@@ -13596,10 +13599,10 @@
         <v>176</v>
       </c>
       <c r="C40" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D40" s="18" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="E40" s="20">
         <v>2632</v>
@@ -13628,7 +13631,7 @@
         <v>145</v>
       </c>
       <c r="D41" s="18" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="E41" s="20">
         <v>10282</v>
@@ -13654,10 +13657,10 @@
         <v>176</v>
       </c>
       <c r="C42" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D42" s="18" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="E42" s="20">
         <v>2538</v>
@@ -13683,10 +13686,10 @@
         <v>176</v>
       </c>
       <c r="C43" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D43" s="18" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="E43" s="20">
         <v>2279</v>
@@ -13712,10 +13715,10 @@
         <v>176</v>
       </c>
       <c r="C44" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D44" s="18" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="E44" s="20">
         <v>1537</v>
@@ -13741,10 +13744,10 @@
         <v>176</v>
       </c>
       <c r="C45" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D45" s="18" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="E45" s="20">
         <v>2098</v>
@@ -13770,10 +13773,10 @@
         <v>176</v>
       </c>
       <c r="C46" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D46" s="18" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="E46" s="20">
         <v>1830</v>
@@ -13802,7 +13805,7 @@
         <v>141</v>
       </c>
       <c r="D47" s="18" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="E47" s="20">
         <v>9265</v>
@@ -13828,10 +13831,10 @@
         <v>176</v>
       </c>
       <c r="C48" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D48" s="18" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="E48" s="20">
         <v>3051</v>
@@ -13857,10 +13860,10 @@
         <v>176</v>
       </c>
       <c r="C49" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D49" s="18" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="E49" s="20">
         <v>1909</v>
@@ -13886,10 +13889,10 @@
         <v>176</v>
       </c>
       <c r="C50" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D50" s="18" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="E50" s="20">
         <v>2183</v>
@@ -13915,10 +13918,10 @@
         <v>176</v>
       </c>
       <c r="C51" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D51" s="18" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="E51" s="20">
         <v>2122</v>
@@ -13947,7 +13950,7 @@
         <v>139</v>
       </c>
       <c r="D52" s="18" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="E52" s="20">
         <v>11405</v>
@@ -13973,10 +13976,10 @@
         <v>176</v>
       </c>
       <c r="C53" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D53" s="18" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="E53" s="20">
         <v>3789</v>
@@ -14002,10 +14005,10 @@
         <v>176</v>
       </c>
       <c r="C54" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D54" s="18" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="E54" s="20">
         <v>1711</v>
@@ -14031,10 +14034,10 @@
         <v>176</v>
       </c>
       <c r="C55" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D55" s="18" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="E55" s="20">
         <v>1219</v>
@@ -14060,10 +14063,10 @@
         <v>176</v>
       </c>
       <c r="C56" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D56" s="18" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="E56" s="20">
         <v>2758</v>
@@ -14089,10 +14092,10 @@
         <v>176</v>
       </c>
       <c r="C57" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D57" s="18" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="E57" s="20">
         <v>1928</v>
@@ -14121,7 +14124,7 @@
         <v>143</v>
       </c>
       <c r="D58" s="18" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="E58" s="20">
         <v>14205</v>
@@ -14147,10 +14150,10 @@
         <v>176</v>
       </c>
       <c r="C59" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D59" s="18" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="E59" s="20">
         <v>3738</v>
@@ -14176,10 +14179,10 @@
         <v>176</v>
       </c>
       <c r="C60" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D60" s="18" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="E60" s="20">
         <v>2646</v>
@@ -14205,10 +14208,10 @@
         <v>176</v>
       </c>
       <c r="C61" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D61" s="18" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="E61" s="20">
         <v>1671</v>
@@ -14234,10 +14237,10 @@
         <v>176</v>
       </c>
       <c r="C62" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D62" s="18" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="E62" s="20">
         <v>1801</v>
@@ -14263,10 +14266,10 @@
         <v>176</v>
       </c>
       <c r="C63" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D63" s="18" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="E63" s="20">
         <v>2349</v>
@@ -14292,10 +14295,10 @@
         <v>176</v>
       </c>
       <c r="C64" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D64" s="18" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="E64" s="20">
         <v>2000</v>
@@ -14324,7 +14327,7 @@
         <v>135</v>
       </c>
       <c r="D65" s="18" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="E65" s="20">
         <v>16364</v>
@@ -14350,10 +14353,10 @@
         <v>176</v>
       </c>
       <c r="C66" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D66" s="18" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="E66" s="20">
         <v>4134</v>
@@ -14379,10 +14382,10 @@
         <v>176</v>
       </c>
       <c r="C67" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D67" s="18" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="E67" s="20">
         <v>2782</v>
@@ -14408,10 +14411,10 @@
         <v>176</v>
       </c>
       <c r="C68" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D68" s="18" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="E68" s="20">
         <v>3042</v>
@@ -14437,10 +14440,10 @@
         <v>176</v>
       </c>
       <c r="C69" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D69" s="18" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="E69" s="20">
         <v>3599</v>
@@ -14466,10 +14469,10 @@
         <v>176</v>
       </c>
       <c r="C70" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D70" s="18" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="E70" s="20">
         <v>2807</v>
@@ -14498,7 +14501,7 @@
         <v>133</v>
       </c>
       <c r="D71" s="18" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="E71" s="20">
         <v>9404</v>
@@ -14524,10 +14527,10 @@
         <v>176</v>
       </c>
       <c r="C72" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D72" s="18" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="E72" s="20">
         <v>2815</v>
@@ -14553,10 +14556,10 @@
         <v>176</v>
       </c>
       <c r="C73" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D73" s="18" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="E73" s="20">
         <v>2675</v>
@@ -14582,10 +14585,10 @@
         <v>176</v>
       </c>
       <c r="C74" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D74" s="18" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="E74" s="20">
         <v>1585</v>
@@ -14611,10 +14614,10 @@
         <v>176</v>
       </c>
       <c r="C75" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D75" s="18" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="E75" s="20">
         <v>2329</v>
@@ -14643,7 +14646,7 @@
         <v>125</v>
       </c>
       <c r="D76" s="18" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="E76" s="20">
         <v>9063</v>
@@ -14669,10 +14672,10 @@
         <v>176</v>
       </c>
       <c r="C77" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D77" s="18" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="E77" s="20">
         <v>2839</v>
@@ -14698,10 +14701,10 @@
         <v>176</v>
       </c>
       <c r="C78" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D78" s="18" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="E78" s="20">
         <v>1417</v>
@@ -14727,10 +14730,10 @@
         <v>176</v>
       </c>
       <c r="C79" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D79" s="18" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="E79" s="20">
         <v>2048</v>
@@ -14756,10 +14759,10 @@
         <v>176</v>
       </c>
       <c r="C80" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D80" s="18" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="E80" s="20">
         <v>2759</v>
@@ -14788,7 +14791,7 @@
         <v>131</v>
       </c>
       <c r="D81" s="18" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="E81" s="20">
         <v>10748</v>
@@ -14814,10 +14817,10 @@
         <v>176</v>
       </c>
       <c r="C82" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D82" s="18" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="E82" s="20">
         <v>2872</v>
@@ -14843,10 +14846,10 @@
         <v>176</v>
       </c>
       <c r="C83" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D83" s="18" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="E83" s="20">
         <v>1269</v>
@@ -14872,10 +14875,10 @@
         <v>176</v>
       </c>
       <c r="C84" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D84" s="18" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="E84" s="20">
         <v>1392</v>
@@ -14901,10 +14904,10 @@
         <v>176</v>
       </c>
       <c r="C85" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D85" s="18" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="E85" s="20">
         <v>2733</v>
@@ -14930,10 +14933,10 @@
         <v>176</v>
       </c>
       <c r="C86" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D86" s="18" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="E86" s="20">
         <v>2482</v>
@@ -14962,7 +14965,7 @@
         <v>147</v>
       </c>
       <c r="D87" s="18" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="E87" s="20">
         <v>1935</v>
@@ -14988,10 +14991,10 @@
         <v>176</v>
       </c>
       <c r="C88" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D88" s="18" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="E88" s="19">
         <v>576</v>
@@ -15017,10 +15020,10 @@
         <v>176</v>
       </c>
       <c r="C89" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D89" s="18" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="E89" s="19">
         <v>691</v>
@@ -15046,10 +15049,10 @@
         <v>176</v>
       </c>
       <c r="C90" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D90" s="18" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="E90" s="19">
         <v>668</v>
@@ -15078,7 +15081,7 @@
         <v>157</v>
       </c>
       <c r="D91" s="18" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="E91" s="20">
         <v>14336</v>
@@ -15104,10 +15107,10 @@
         <v>176</v>
       </c>
       <c r="C92" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D92" s="18" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="E92" s="20">
         <v>3776</v>
@@ -15133,10 +15136,10 @@
         <v>176</v>
       </c>
       <c r="C93" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D93" s="18" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="E93" s="20">
         <v>3181</v>
@@ -15162,10 +15165,10 @@
         <v>176</v>
       </c>
       <c r="C94" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D94" s="18" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="E94" s="19">
         <v>682</v>
@@ -15191,10 +15194,10 @@
         <v>176</v>
       </c>
       <c r="C95" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D95" s="18" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="E95" s="20">
         <v>2484</v>
@@ -15220,10 +15223,10 @@
         <v>176</v>
       </c>
       <c r="C96" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D96" s="18" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="E96" s="20">
         <v>1655</v>
@@ -15249,10 +15252,10 @@
         <v>176</v>
       </c>
       <c r="C97" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D97" s="18" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="E97" s="19">
         <v>718</v>
@@ -15278,10 +15281,10 @@
         <v>176</v>
       </c>
       <c r="C98" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D98" s="18" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="E98" s="20">
         <v>1840</v>
@@ -15307,10 +15310,10 @@
         <v>176</v>
       </c>
       <c r="C99" s="18" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="D99" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="E99" s="19">
         <v>0</v>
@@ -15336,10 +15339,10 @@
         <v>278</v>
       </c>
       <c r="C100" s="18" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="D100" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="E100" s="20">
         <v>199637</v>
@@ -15365,10 +15368,10 @@
         <v>278</v>
       </c>
       <c r="C101" s="18" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="D101" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="E101" s="19">
         <v>412</v>
@@ -15394,10 +15397,10 @@
         <v>278</v>
       </c>
       <c r="C102" s="18" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="D102" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="E102" s="20">
         <v>18543</v>
@@ -15423,10 +15426,10 @@
         <v>278</v>
       </c>
       <c r="C103" s="18" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="D103" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="E103" s="19">
         <v>762</v>
@@ -15455,7 +15458,7 @@
         <v>87</v>
       </c>
       <c r="D104" s="18" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="E104" s="20">
         <v>12126</v>
@@ -15481,10 +15484,10 @@
         <v>278</v>
       </c>
       <c r="C105" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D105" s="18" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="E105" s="20">
         <v>2953</v>
@@ -15510,10 +15513,10 @@
         <v>278</v>
       </c>
       <c r="C106" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D106" s="18" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="E106" s="20">
         <v>3078</v>
@@ -15539,10 +15542,10 @@
         <v>278</v>
       </c>
       <c r="C107" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D107" s="18" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="E107" s="20">
         <v>2753</v>
@@ -15568,10 +15571,10 @@
         <v>278</v>
       </c>
       <c r="C108" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D108" s="18" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="E108" s="20">
         <v>2439</v>
@@ -15597,10 +15600,10 @@
         <v>278</v>
       </c>
       <c r="C109" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D109" s="18" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="E109" s="19">
         <v>903</v>
@@ -15629,7 +15632,7 @@
         <v>113</v>
       </c>
       <c r="D110" s="18" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="E110" s="20">
         <v>10020</v>
@@ -15655,10 +15658,10 @@
         <v>278</v>
       </c>
       <c r="C111" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D111" s="18" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="E111" s="20">
         <v>3727</v>
@@ -15684,10 +15687,10 @@
         <v>278</v>
       </c>
       <c r="C112" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D112" s="18" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="E112" s="20">
         <v>1625</v>
@@ -15713,10 +15716,10 @@
         <v>278</v>
       </c>
       <c r="C113" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D113" s="18" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="E113" s="20">
         <v>2429</v>
@@ -15742,10 +15745,10 @@
         <v>278</v>
       </c>
       <c r="C114" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D114" s="18" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="E114" s="20">
         <v>2239</v>
@@ -15774,7 +15777,7 @@
         <v>29</v>
       </c>
       <c r="D115" s="18" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="E115" s="20">
         <v>10163</v>
@@ -15800,10 +15803,10 @@
         <v>278</v>
       </c>
       <c r="C116" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D116" s="18" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="E116" s="20">
         <v>2870</v>
@@ -15829,10 +15832,10 @@
         <v>278</v>
       </c>
       <c r="C117" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D117" s="18" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="E117" s="20">
         <v>1172</v>
@@ -15858,10 +15861,10 @@
         <v>278</v>
       </c>
       <c r="C118" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D118" s="18" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="E118" s="20">
         <v>1400</v>
@@ -15887,10 +15890,10 @@
         <v>278</v>
       </c>
       <c r="C119" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D119" s="18" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="E119" s="20">
         <v>2075</v>
@@ -15916,10 +15919,10 @@
         <v>278</v>
       </c>
       <c r="C120" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D120" s="18" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="E120" s="20">
         <v>1567</v>
@@ -15945,10 +15948,10 @@
         <v>278</v>
       </c>
       <c r="C121" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D121" s="18" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="E121" s="20">
         <v>1079</v>
@@ -15977,7 +15980,7 @@
         <v>89</v>
       </c>
       <c r="D122" s="18" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="E122" s="20">
         <v>10782</v>
@@ -16003,10 +16006,10 @@
         <v>278</v>
       </c>
       <c r="C123" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D123" s="18" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="E123" s="20">
         <v>3233</v>
@@ -16032,10 +16035,10 @@
         <v>278</v>
       </c>
       <c r="C124" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D124" s="18" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="E124" s="20">
         <v>3217</v>
@@ -16061,10 +16064,10 @@
         <v>278</v>
       </c>
       <c r="C125" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D125" s="18" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="E125" s="20">
         <v>1933</v>
@@ -16090,10 +16093,10 @@
         <v>278</v>
       </c>
       <c r="C126" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D126" s="18" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="E126" s="20">
         <v>2399</v>
@@ -16122,7 +16125,7 @@
         <v>153</v>
       </c>
       <c r="D127" s="18" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="E127" s="20">
         <v>4117</v>
@@ -16148,10 +16151,10 @@
         <v>278</v>
       </c>
       <c r="C128" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D128" s="18" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="E128" s="20">
         <v>1218</v>
@@ -16177,10 +16180,10 @@
         <v>278</v>
       </c>
       <c r="C129" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D129" s="18" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="E129" s="20">
         <v>1265</v>
@@ -16206,10 +16209,10 @@
         <v>278</v>
       </c>
       <c r="C130" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D130" s="18" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="E130" s="20">
         <v>1634</v>
@@ -16238,7 +16241,7 @@
         <v>91</v>
       </c>
       <c r="D131" s="18" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="E131" s="20">
         <v>12777</v>
@@ -16264,10 +16267,10 @@
         <v>278</v>
       </c>
       <c r="C132" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D132" s="18" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="E132" s="20">
         <v>3281</v>
@@ -16293,10 +16296,10 @@
         <v>278</v>
       </c>
       <c r="C133" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D133" s="18" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="E133" s="20">
         <v>1855</v>
@@ -16322,10 +16325,10 @@
         <v>278</v>
       </c>
       <c r="C134" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D134" s="18" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="E134" s="20">
         <v>1795</v>
@@ -16351,10 +16354,10 @@
         <v>278</v>
       </c>
       <c r="C135" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D135" s="18" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="E135" s="20">
         <v>1678</v>
@@ -16380,10 +16383,10 @@
         <v>278</v>
       </c>
       <c r="C136" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D136" s="18" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="E136" s="20">
         <v>2105</v>
@@ -16409,10 +16412,10 @@
         <v>278</v>
       </c>
       <c r="C137" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D137" s="18" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="E137" s="20">
         <v>2063</v>
@@ -16441,7 +16444,7 @@
         <v>85</v>
       </c>
       <c r="D138" s="18" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="E138" s="20">
         <v>4714</v>
@@ -16467,10 +16470,10 @@
         <v>278</v>
       </c>
       <c r="C139" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D139" s="18" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="E139" s="20">
         <v>1663</v>
@@ -16496,10 +16499,10 @@
         <v>278</v>
       </c>
       <c r="C140" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D140" s="18" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="E140" s="20">
         <v>1476</v>
@@ -16525,10 +16528,10 @@
         <v>278</v>
       </c>
       <c r="C141" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D141" s="18" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="E141" s="20">
         <v>1575</v>
@@ -16557,7 +16560,7 @@
         <v>111</v>
       </c>
       <c r="D142" s="18" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="E142" s="20">
         <v>5484</v>
@@ -16583,10 +16586,10 @@
         <v>278</v>
       </c>
       <c r="C143" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D143" s="18" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="E143" s="20">
         <v>1599</v>
@@ -16612,10 +16615,10 @@
         <v>278</v>
       </c>
       <c r="C144" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D144" s="18" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="E144" s="20">
         <v>1832</v>
@@ -16641,10 +16644,10 @@
         <v>278</v>
       </c>
       <c r="C145" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D145" s="18" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="E145" s="20">
         <v>2053</v>
@@ -16673,7 +16676,7 @@
         <v>83</v>
       </c>
       <c r="D146" s="18" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="E146" s="20">
         <v>8153</v>
@@ -16699,10 +16702,10 @@
         <v>278</v>
       </c>
       <c r="C147" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D147" s="18" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="E147" s="20">
         <v>3081</v>
@@ -16728,10 +16731,10 @@
         <v>278</v>
       </c>
       <c r="C148" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D148" s="18" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="E148" s="20">
         <v>1694</v>
@@ -16757,10 +16760,10 @@
         <v>278</v>
       </c>
       <c r="C149" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D149" s="18" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="E149" s="20">
         <v>1389</v>
@@ -16786,10 +16789,10 @@
         <v>278</v>
       </c>
       <c r="C150" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D150" s="18" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="E150" s="20">
         <v>1989</v>
@@ -16818,7 +16821,7 @@
         <v>95</v>
       </c>
       <c r="D151" s="18" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="E151" s="20">
         <v>8794</v>
@@ -16844,10 +16847,10 @@
         <v>278</v>
       </c>
       <c r="C152" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D152" s="18" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="E152" s="20">
         <v>3219</v>
@@ -16873,10 +16876,10 @@
         <v>278</v>
       </c>
       <c r="C153" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D153" s="18" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="E153" s="20">
         <v>2154</v>
@@ -16902,10 +16905,10 @@
         <v>278</v>
       </c>
       <c r="C154" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D154" s="18" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="E154" s="20">
         <v>1855</v>
@@ -16931,10 +16934,10 @@
         <v>278</v>
       </c>
       <c r="C155" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D155" s="18" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="E155" s="20">
         <v>1566</v>
@@ -16963,7 +16966,7 @@
         <v>97</v>
       </c>
       <c r="D156" s="18" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="E156" s="20">
         <v>9968</v>
@@ -16989,10 +16992,10 @@
         <v>278</v>
       </c>
       <c r="C157" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D157" s="18" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="E157" s="20">
         <v>2978</v>
@@ -17018,10 +17021,10 @@
         <v>278</v>
       </c>
       <c r="C158" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D158" s="18" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="E158" s="20">
         <v>1836</v>
@@ -17047,10 +17050,10 @@
         <v>278</v>
       </c>
       <c r="C159" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D159" s="18" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="E159" s="20">
         <v>1707</v>
@@ -17076,10 +17079,10 @@
         <v>278</v>
       </c>
       <c r="C160" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D160" s="18" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="E160" s="20">
         <v>2049</v>
@@ -17105,10 +17108,10 @@
         <v>278</v>
       </c>
       <c r="C161" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D161" s="18" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="E161" s="20">
         <v>1398</v>
@@ -17137,7 +17140,7 @@
         <v>103</v>
       </c>
       <c r="D162" s="18" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="E162" s="20">
         <v>18278</v>
@@ -17163,10 +17166,10 @@
         <v>278</v>
       </c>
       <c r="C163" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D163" s="18" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="E163" s="20">
         <v>4858</v>
@@ -17192,10 +17195,10 @@
         <v>278</v>
       </c>
       <c r="C164" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D164" s="18" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="E164" s="20">
         <v>1334</v>
@@ -17221,10 +17224,10 @@
         <v>278</v>
       </c>
       <c r="C165" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D165" s="18" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="E165" s="20">
         <v>1740</v>
@@ -17250,10 +17253,10 @@
         <v>278</v>
       </c>
       <c r="C166" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D166" s="18" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="E166" s="20">
         <v>2298</v>
@@ -17279,10 +17282,10 @@
         <v>278</v>
       </c>
       <c r="C167" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D167" s="18" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="E167" s="20">
         <v>2520</v>
@@ -17308,10 +17311,10 @@
         <v>278</v>
       </c>
       <c r="C168" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D168" s="18" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="E168" s="20">
         <v>2438</v>
@@ -17337,10 +17340,10 @@
         <v>278</v>
       </c>
       <c r="C169" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D169" s="18" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="E169" s="20">
         <v>3090</v>
@@ -17369,7 +17372,7 @@
         <v>105</v>
       </c>
       <c r="D170" s="18" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="E170" s="20">
         <v>6624</v>
@@ -17395,10 +17398,10 @@
         <v>278</v>
       </c>
       <c r="C171" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D171" s="18" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="E171" s="20">
         <v>2685</v>
@@ -17424,10 +17427,10 @@
         <v>278</v>
       </c>
       <c r="C172" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D172" s="18" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="E172" s="20">
         <v>2401</v>
@@ -17453,10 +17456,10 @@
         <v>278</v>
       </c>
       <c r="C173" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D173" s="18" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="E173" s="20">
         <v>1538</v>
@@ -17485,7 +17488,7 @@
         <v>109</v>
       </c>
       <c r="D174" s="18" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="E174" s="20">
         <v>10847</v>
@@ -17511,10 +17514,10 @@
         <v>278</v>
       </c>
       <c r="C175" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D175" s="18" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="E175" s="20">
         <v>3021</v>
@@ -17540,10 +17543,10 @@
         <v>278</v>
       </c>
       <c r="C176" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D176" s="18" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="E176" s="20">
         <v>1306</v>
@@ -17569,10 +17572,10 @@
         <v>278</v>
       </c>
       <c r="C177" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D177" s="18" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="E177" s="20">
         <v>1829</v>
@@ -17598,10 +17601,10 @@
         <v>278</v>
       </c>
       <c r="C178" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D178" s="18" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="E178" s="20">
         <v>2124</v>
@@ -17627,10 +17630,10 @@
         <v>278</v>
       </c>
       <c r="C179" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D179" s="18" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="E179" s="20">
         <v>2567</v>
@@ -17659,7 +17662,7 @@
         <v>93</v>
       </c>
       <c r="D180" s="18" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="E180" s="20">
         <v>15583</v>
@@ -17685,10 +17688,10 @@
         <v>278</v>
       </c>
       <c r="C181" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D181" s="18" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="E181" s="20">
         <v>4128</v>
@@ -17714,10 +17717,10 @@
         <v>278</v>
       </c>
       <c r="C182" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D182" s="18" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="E182" s="20">
         <v>2990</v>
@@ -17743,10 +17746,10 @@
         <v>278</v>
       </c>
       <c r="C183" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D183" s="18" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="E183" s="20">
         <v>1210</v>
@@ -17772,10 +17775,10 @@
         <v>278</v>
       </c>
       <c r="C184" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D184" s="18" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="E184" s="20">
         <v>1894</v>
@@ -17801,10 +17804,10 @@
         <v>278</v>
       </c>
       <c r="C185" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D185" s="18" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="E185" s="20">
         <v>2761</v>
@@ -17830,10 +17833,10 @@
         <v>278</v>
       </c>
       <c r="C186" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D186" s="18" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="E186" s="20">
         <v>2600</v>
@@ -17862,7 +17865,7 @@
         <v>107</v>
       </c>
       <c r="D187" s="18" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="E187" s="20">
         <v>10619</v>
@@ -17888,10 +17891,10 @@
         <v>278</v>
       </c>
       <c r="C188" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D188" s="18" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="E188" s="20">
         <v>3616</v>
@@ -17917,10 +17920,10 @@
         <v>278</v>
       </c>
       <c r="C189" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D189" s="18" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="E189" s="20">
         <v>1281</v>
@@ -17946,10 +17949,10 @@
         <v>278</v>
       </c>
       <c r="C190" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D190" s="18" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="E190" s="20">
         <v>2216</v>
@@ -17975,10 +17978,10 @@
         <v>278</v>
       </c>
       <c r="C191" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D191" s="18" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="E191" s="20">
         <v>1837</v>
@@ -18004,10 +18007,10 @@
         <v>278</v>
       </c>
       <c r="C192" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D192" s="18" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="E192" s="20">
         <v>1669</v>
@@ -18036,7 +18039,7 @@
         <v>101</v>
       </c>
       <c r="D193" s="18" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="E193" s="20">
         <v>20871</v>
@@ -18062,10 +18065,10 @@
         <v>278</v>
       </c>
       <c r="C194" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D194" s="18" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="E194" s="20">
         <v>4272</v>
@@ -18091,10 +18094,10 @@
         <v>278</v>
       </c>
       <c r="C195" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D195" s="18" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="E195" s="20">
         <v>1639</v>
@@ -18120,10 +18123,10 @@
         <v>278</v>
       </c>
       <c r="C196" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D196" s="18" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="E196" s="20">
         <v>1859</v>
@@ -18149,10 +18152,10 @@
         <v>278</v>
       </c>
       <c r="C197" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D197" s="18" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="E197" s="20">
         <v>2451</v>
@@ -18178,10 +18181,10 @@
         <v>278</v>
       </c>
       <c r="C198" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D198" s="18" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="E198" s="20">
         <v>2275</v>
@@ -18207,10 +18210,10 @@
         <v>278</v>
       </c>
       <c r="C199" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D199" s="18" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="E199" s="20">
         <v>2067</v>
@@ -18236,10 +18239,10 @@
         <v>278</v>
       </c>
       <c r="C200" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D200" s="18" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="E200" s="20">
         <v>2779</v>
@@ -18265,10 +18268,10 @@
         <v>278</v>
       </c>
       <c r="C201" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D201" s="18" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="E201" s="20">
         <v>2753</v>
@@ -18294,10 +18297,10 @@
         <v>278</v>
       </c>
       <c r="C202" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D202" s="18" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="E202" s="19">
         <v>776</v>
@@ -18323,10 +18326,10 @@
         <v>278</v>
       </c>
       <c r="C203" s="18" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="D203" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="E203" s="19">
         <v>0</v>
@@ -18352,10 +18355,10 @@
         <v>341</v>
       </c>
       <c r="C204" s="18" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="D204" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="E204" s="20">
         <v>399599</v>
@@ -18381,10 +18384,10 @@
         <v>341</v>
       </c>
       <c r="C205" s="18" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="D205" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="E205" s="19">
         <v>712</v>
@@ -18410,10 +18413,10 @@
         <v>341</v>
       </c>
       <c r="C206" s="18" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="D206" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="E206" s="20">
         <v>36299</v>
@@ -18439,10 +18442,10 @@
         <v>341</v>
       </c>
       <c r="C207" s="18" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="D207" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="E207" s="20">
         <v>1470</v>
@@ -18471,7 +18474,7 @@
         <v>81</v>
       </c>
       <c r="D208" s="18" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="E208" s="20">
         <v>15925</v>
@@ -18497,10 +18500,10 @@
         <v>341</v>
       </c>
       <c r="C209" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D209" s="18" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="E209" s="20">
         <v>5028</v>
@@ -18526,10 +18529,10 @@
         <v>341</v>
       </c>
       <c r="C210" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D210" s="18" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="E210" s="20">
         <v>2722</v>
@@ -18555,10 +18558,10 @@
         <v>341</v>
       </c>
       <c r="C211" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D211" s="18" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="E211" s="20">
         <v>3080</v>
@@ -18584,10 +18587,10 @@
         <v>341</v>
       </c>
       <c r="C212" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D212" s="18" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="E212" s="20">
         <v>2263</v>
@@ -18613,10 +18616,10 @@
         <v>341</v>
       </c>
       <c r="C213" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D213" s="18" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="E213" s="20">
         <v>2832</v>
@@ -18645,7 +18648,7 @@
         <v>99</v>
       </c>
       <c r="D214" s="18" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="E214" s="20">
         <v>12620</v>
@@ -18671,10 +18674,10 @@
         <v>341</v>
       </c>
       <c r="C215" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D215" s="18" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="E215" s="20">
         <v>3718</v>
@@ -18700,10 +18703,10 @@
         <v>341</v>
       </c>
       <c r="C216" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D216" s="18" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="E216" s="20">
         <v>1586</v>
@@ -18729,10 +18732,10 @@
         <v>341</v>
       </c>
       <c r="C217" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D217" s="18" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="E217" s="20">
         <v>1416</v>
@@ -18758,10 +18761,10 @@
         <v>341</v>
       </c>
       <c r="C218" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D218" s="18" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="E218" s="20">
         <v>1392</v>
@@ -18787,10 +18790,10 @@
         <v>341</v>
       </c>
       <c r="C219" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D219" s="18" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="E219" s="20">
         <v>2118</v>
@@ -18816,10 +18819,10 @@
         <v>341</v>
       </c>
       <c r="C220" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D220" s="18" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="E220" s="20">
         <v>2390</v>
@@ -18848,7 +18851,7 @@
         <v>59</v>
       </c>
       <c r="D221" s="18" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="E221" s="20">
         <v>14059</v>
@@ -18874,10 +18877,10 @@
         <v>341</v>
       </c>
       <c r="C222" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D222" s="18" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="E222" s="20">
         <v>3715</v>
@@ -18903,10 +18906,10 @@
         <v>341</v>
       </c>
       <c r="C223" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D223" s="18" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="E223" s="20">
         <v>2025</v>
@@ -18932,10 +18935,10 @@
         <v>341</v>
       </c>
       <c r="C224" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D224" s="18" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="E224" s="20">
         <v>1431</v>
@@ -18961,10 +18964,10 @@
         <v>341</v>
       </c>
       <c r="C225" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D225" s="18" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="E225" s="20">
         <v>1826</v>
@@ -18990,10 +18993,10 @@
         <v>341</v>
       </c>
       <c r="C226" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D226" s="18" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="E226" s="20">
         <v>2458</v>
@@ -19019,10 +19022,10 @@
         <v>341</v>
       </c>
       <c r="C227" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D227" s="18" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="E227" s="20">
         <v>2604</v>
@@ -19051,7 +19054,7 @@
         <v>41</v>
       </c>
       <c r="D228" s="18" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="E228" s="20">
         <v>13153</v>
@@ -19077,10 +19080,10 @@
         <v>341</v>
       </c>
       <c r="C229" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D229" s="18" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="E229" s="20">
         <v>4731</v>
@@ -19106,10 +19109,10 @@
         <v>341</v>
       </c>
       <c r="C230" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D230" s="18" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="E230" s="20">
         <v>1855</v>
@@ -19135,10 +19138,10 @@
         <v>341</v>
       </c>
       <c r="C231" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D231" s="18" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="E231" s="20">
         <v>1594</v>
@@ -19164,10 +19167,10 @@
         <v>341</v>
       </c>
       <c r="C232" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D232" s="18" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="E232" s="20">
         <v>1431</v>
@@ -19193,10 +19196,10 @@
         <v>341</v>
       </c>
       <c r="C233" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D233" s="18" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="E233" s="20">
         <v>1617</v>
@@ -19222,10 +19225,10 @@
         <v>341</v>
       </c>
       <c r="C234" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D234" s="18" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="E234" s="20">
         <v>1925</v>
@@ -19254,7 +19257,7 @@
         <v>71</v>
       </c>
       <c r="D235" s="18" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="E235" s="20">
         <v>12586</v>
@@ -19280,10 +19283,10 @@
         <v>341</v>
       </c>
       <c r="C236" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D236" s="18" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="E236" s="20">
         <v>3093</v>
@@ -19309,10 +19312,10 @@
         <v>341</v>
       </c>
       <c r="C237" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D237" s="18" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="E237" s="20">
         <v>1947</v>
@@ -19338,10 +19341,10 @@
         <v>341</v>
       </c>
       <c r="C238" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D238" s="18" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="E238" s="20">
         <v>3632</v>
@@ -19367,10 +19370,10 @@
         <v>341</v>
       </c>
       <c r="C239" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D239" s="18" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="E239" s="20">
         <v>1672</v>
@@ -19396,10 +19399,10 @@
         <v>341</v>
       </c>
       <c r="C240" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D240" s="18" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="E240" s="20">
         <v>2242</v>
@@ -19428,7 +19431,7 @@
         <v>77</v>
       </c>
       <c r="D241" s="18" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="E241" s="20">
         <v>11389</v>
@@ -19454,10 +19457,10 @@
         <v>341</v>
       </c>
       <c r="C242" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D242" s="18" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="E242" s="20">
         <v>3973</v>
@@ -19483,10 +19486,10 @@
         <v>341</v>
       </c>
       <c r="C243" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D243" s="18" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="E243" s="20">
         <v>3542</v>
@@ -19512,10 +19515,10 @@
         <v>341</v>
       </c>
       <c r="C244" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D244" s="18" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="E244" s="20">
         <v>2376</v>
@@ -19541,10 +19544,10 @@
         <v>341</v>
       </c>
       <c r="C245" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D245" s="18" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="E245" s="20">
         <v>1498</v>
@@ -19573,7 +19576,7 @@
         <v>31</v>
       </c>
       <c r="D246" s="18" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="E246" s="20">
         <v>19574</v>
@@ -19599,10 +19602,10 @@
         <v>341</v>
       </c>
       <c r="C247" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D247" s="18" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="E247" s="20">
         <v>3952</v>
@@ -19628,10 +19631,10 @@
         <v>341</v>
       </c>
       <c r="C248" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D248" s="18" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="E248" s="20">
         <v>3218</v>
@@ -19657,10 +19660,10 @@
         <v>341</v>
       </c>
       <c r="C249" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D249" s="18" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="E249" s="20">
         <v>3664</v>
@@ -19686,10 +19689,10 @@
         <v>341</v>
       </c>
       <c r="C250" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D250" s="18" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="E250" s="20">
         <v>1588</v>
@@ -19715,10 +19718,10 @@
         <v>341</v>
       </c>
       <c r="C251" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D251" s="18" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="E251" s="20">
         <v>1522</v>
@@ -19744,10 +19747,10 @@
         <v>341</v>
       </c>
       <c r="C252" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D252" s="18" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="E252" s="20">
         <v>3032</v>
@@ -19773,10 +19776,10 @@
         <v>341</v>
       </c>
       <c r="C253" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D253" s="18" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="E253" s="20">
         <v>2598</v>
@@ -19805,7 +19808,7 @@
         <v>27</v>
       </c>
       <c r="D254" s="18" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="E254" s="20">
         <v>14127</v>
@@ -19831,10 +19834,10 @@
         <v>341</v>
       </c>
       <c r="C255" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D255" s="18" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="E255" s="20">
         <v>6450</v>
@@ -19860,10 +19863,10 @@
         <v>341</v>
       </c>
       <c r="C256" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D256" s="18" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="E256" s="20">
         <v>2112</v>
@@ -19889,10 +19892,10 @@
         <v>341</v>
       </c>
       <c r="C257" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D257" s="18" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="E257" s="20">
         <v>1827</v>
@@ -19918,10 +19921,10 @@
         <v>341</v>
       </c>
       <c r="C258" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D258" s="18" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="E258" s="20">
         <v>1970</v>
@@ -19947,10 +19950,10 @@
         <v>341</v>
       </c>
       <c r="C259" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D259" s="18" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="E259" s="20">
         <v>1768</v>
@@ -19979,7 +19982,7 @@
         <v>49</v>
       </c>
       <c r="D260" s="18" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="E260" s="20">
         <v>23858</v>
@@ -20005,10 +20008,10 @@
         <v>341</v>
       </c>
       <c r="C261" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D261" s="18" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="E261" s="20">
         <v>5295</v>
@@ -20034,10 +20037,10 @@
         <v>341</v>
       </c>
       <c r="C262" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D262" s="18" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="E262" s="20">
         <v>2769</v>
@@ -20063,10 +20066,10 @@
         <v>341</v>
       </c>
       <c r="C263" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D263" s="18" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="E263" s="20">
         <v>2815</v>
@@ -20092,10 +20095,10 @@
         <v>341</v>
       </c>
       <c r="C264" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D264" s="18" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="E264" s="20">
         <v>2886</v>
@@ -20121,10 +20124,10 @@
         <v>341</v>
       </c>
       <c r="C265" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D265" s="18" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="E265" s="20">
         <v>2500</v>
@@ -20150,10 +20153,10 @@
         <v>341</v>
       </c>
       <c r="C266" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D266" s="18" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="E266" s="20">
         <v>2480</v>
@@ -20179,10 +20182,10 @@
         <v>341</v>
       </c>
       <c r="C267" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D267" s="18" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="E267" s="20">
         <v>2406</v>
@@ -20208,10 +20211,10 @@
         <v>341</v>
       </c>
       <c r="C268" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D268" s="18" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="E268" s="20">
         <v>2707</v>
@@ -20240,7 +20243,7 @@
         <v>25</v>
       </c>
       <c r="D269" s="18" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="E269" s="20">
         <v>16108</v>
@@ -20266,10 +20269,10 @@
         <v>341</v>
       </c>
       <c r="C270" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D270" s="18" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="E270" s="20">
         <v>6115</v>
@@ -20295,10 +20298,10 @@
         <v>341</v>
       </c>
       <c r="C271" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D271" s="18" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="E271" s="20">
         <v>1731</v>
@@ -20324,10 +20327,10 @@
         <v>341</v>
       </c>
       <c r="C272" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D272" s="18" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="E272" s="20">
         <v>2170</v>
@@ -20353,10 +20356,10 @@
         <v>341</v>
       </c>
       <c r="C273" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D273" s="18" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="E273" s="20">
         <v>1730</v>
@@ -20382,10 +20385,10 @@
         <v>341</v>
       </c>
       <c r="C274" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D274" s="18" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="E274" s="20">
         <v>2947</v>
@@ -20411,10 +20414,10 @@
         <v>341</v>
       </c>
       <c r="C275" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D275" s="18" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="E275" s="20">
         <v>1415</v>
@@ -20443,7 +20446,7 @@
         <v>75</v>
       </c>
       <c r="D276" s="18" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="E276" s="20">
         <v>15349</v>
@@ -20469,10 +20472,10 @@
         <v>341</v>
       </c>
       <c r="C277" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D277" s="18" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="E277" s="20">
         <v>3427</v>
@@ -20498,10 +20501,10 @@
         <v>341</v>
       </c>
       <c r="C278" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D278" s="18" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="E278" s="20">
         <v>3249</v>
@@ -20527,10 +20530,10 @@
         <v>341</v>
       </c>
       <c r="C279" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D279" s="18" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="E279" s="20">
         <v>3375</v>
@@ -20556,10 +20559,10 @@
         <v>341</v>
       </c>
       <c r="C280" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D280" s="18" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="E280" s="20">
         <v>2916</v>
@@ -20585,10 +20588,10 @@
         <v>341</v>
       </c>
       <c r="C281" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D281" s="18" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="E281" s="20">
         <v>2382</v>
@@ -20617,7 +20620,7 @@
         <v>79</v>
       </c>
       <c r="D282" s="18" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="E282" s="20">
         <v>9419</v>
@@ -20643,10 +20646,10 @@
         <v>341</v>
       </c>
       <c r="C283" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D283" s="18" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="E283" s="20">
         <v>3045</v>
@@ -20672,10 +20675,10 @@
         <v>341</v>
       </c>
       <c r="C284" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D284" s="18" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="E284" s="20">
         <v>2886</v>
@@ -20701,10 +20704,10 @@
         <v>341</v>
       </c>
       <c r="C285" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D285" s="18" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="E285" s="20">
         <v>2046</v>
@@ -20730,10 +20733,10 @@
         <v>341</v>
       </c>
       <c r="C286" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D286" s="18" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="E286" s="20">
         <v>1442</v>
@@ -20762,7 +20765,7 @@
         <v>69</v>
       </c>
       <c r="D287" s="18" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="E287" s="20">
         <v>17167</v>
@@ -20788,10 +20791,10 @@
         <v>341</v>
       </c>
       <c r="C288" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D288" s="18" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="E288" s="20">
         <v>4543</v>
@@ -20817,10 +20820,10 @@
         <v>341</v>
       </c>
       <c r="C289" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D289" s="18" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="E289" s="20">
         <v>1993</v>
@@ -20846,10 +20849,10 @@
         <v>341</v>
       </c>
       <c r="C290" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D290" s="18" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="E290" s="20">
         <v>2200</v>
@@ -20875,10 +20878,10 @@
         <v>341</v>
       </c>
       <c r="C291" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D291" s="18" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="E291" s="20">
         <v>3137</v>
@@ -20904,10 +20907,10 @@
         <v>341</v>
       </c>
       <c r="C292" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D292" s="18" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="E292" s="20">
         <v>2688</v>
@@ -20933,10 +20936,10 @@
         <v>341</v>
       </c>
       <c r="C293" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D293" s="18" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="E293" s="20">
         <v>2606</v>
@@ -20965,7 +20968,7 @@
         <v>67</v>
       </c>
       <c r="D294" s="18" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="E294" s="20">
         <v>17533</v>
@@ -20991,10 +20994,10 @@
         <v>341</v>
       </c>
       <c r="C295" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D295" s="18" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="E295" s="20">
         <v>5121</v>
@@ -21020,10 +21023,10 @@
         <v>341</v>
       </c>
       <c r="C296" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D296" s="18" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="E296" s="20">
         <v>1740</v>
@@ -21049,10 +21052,10 @@
         <v>341</v>
       </c>
       <c r="C297" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D297" s="18" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="E297" s="20">
         <v>1806</v>
@@ -21078,10 +21081,10 @@
         <v>341</v>
       </c>
       <c r="C298" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D298" s="18" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="E298" s="20">
         <v>3377</v>
@@ -21107,10 +21110,10 @@
         <v>341</v>
       </c>
       <c r="C299" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D299" s="18" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="E299" s="20">
         <v>2629</v>
@@ -21136,10 +21139,10 @@
         <v>341</v>
       </c>
       <c r="C300" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D300" s="18" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="E300" s="20">
         <v>2860</v>
@@ -21168,7 +21171,7 @@
         <v>73</v>
       </c>
       <c r="D301" s="18" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="E301" s="20">
         <v>19830</v>
@@ -21194,10 +21197,10 @@
         <v>341</v>
       </c>
       <c r="C302" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D302" s="18" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="E302" s="20">
         <v>5515</v>
@@ -21223,10 +21226,10 @@
         <v>341</v>
       </c>
       <c r="C303" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D303" s="18" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="E303" s="20">
         <v>3342</v>
@@ -21252,10 +21255,10 @@
         <v>341</v>
       </c>
       <c r="C304" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D304" s="18" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="E304" s="20">
         <v>2685</v>
@@ -21281,10 +21284,10 @@
         <v>341</v>
       </c>
       <c r="C305" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D305" s="18" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="E305" s="20">
         <v>2521</v>
@@ -21310,10 +21313,10 @@
         <v>341</v>
       </c>
       <c r="C306" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D306" s="18" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="E306" s="20">
         <v>2672</v>
@@ -21339,10 +21342,10 @@
         <v>341</v>
       </c>
       <c r="C307" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D307" s="18" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="E307" s="20">
         <v>3095</v>
@@ -21371,7 +21374,7 @@
         <v>63</v>
       </c>
       <c r="D308" s="18" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="E308" s="20">
         <v>10697</v>
@@ -21397,10 +21400,10 @@
         <v>341</v>
       </c>
       <c r="C309" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D309" s="18" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="E309" s="20">
         <v>3678</v>
@@ -21426,10 +21429,10 @@
         <v>341</v>
       </c>
       <c r="C310" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D310" s="18" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
       <c r="E310" s="20">
         <v>2247</v>
@@ -21455,10 +21458,10 @@
         <v>341</v>
       </c>
       <c r="C311" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D311" s="18" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="E311" s="20">
         <v>2553</v>
@@ -21484,10 +21487,10 @@
         <v>341</v>
       </c>
       <c r="C312" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D312" s="18" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="E312" s="20">
         <v>2219</v>
@@ -21516,7 +21519,7 @@
         <v>53</v>
       </c>
       <c r="D313" s="18" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="E313" s="20">
         <v>12327</v>
@@ -21542,10 +21545,10 @@
         <v>341</v>
       </c>
       <c r="C314" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D314" s="18" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="E314" s="20">
         <v>4978</v>
@@ -21571,10 +21574,10 @@
         <v>341</v>
       </c>
       <c r="C315" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D315" s="18" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="E315" s="20">
         <v>1405</v>
@@ -21600,10 +21603,10 @@
         <v>341</v>
       </c>
       <c r="C316" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D316" s="18" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
       <c r="E316" s="20">
         <v>2101</v>
@@ -21629,10 +21632,10 @@
         <v>341</v>
       </c>
       <c r="C317" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D317" s="18" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="E317" s="20">
         <v>1640</v>
@@ -21658,10 +21661,10 @@
         <v>341</v>
       </c>
       <c r="C318" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D318" s="18" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="E318" s="20">
         <v>2203</v>
@@ -21690,7 +21693,7 @@
         <v>65</v>
       </c>
       <c r="D319" s="18" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="E319" s="20">
         <v>14903</v>
@@ -21716,10 +21719,10 @@
         <v>341</v>
       </c>
       <c r="C320" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D320" s="18" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="E320" s="20">
         <v>5139</v>
@@ -21745,10 +21748,10 @@
         <v>341</v>
       </c>
       <c r="C321" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D321" s="18" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="E321" s="20">
         <v>1433</v>
@@ -21774,10 +21777,10 @@
         <v>341</v>
       </c>
       <c r="C322" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D322" s="18" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="E322" s="20">
         <v>1585</v>
@@ -21803,10 +21806,10 @@
         <v>341</v>
       </c>
       <c r="C323" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D323" s="18" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="E323" s="20">
         <v>2470</v>
@@ -21832,10 +21835,10 @@
         <v>341</v>
       </c>
       <c r="C324" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D324" s="18" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="E324" s="20">
         <v>2504</v>
@@ -21861,10 +21864,10 @@
         <v>341</v>
       </c>
       <c r="C325" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D325" s="18" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="E325" s="20">
         <v>1772</v>
@@ -21893,7 +21896,7 @@
         <v>47</v>
       </c>
       <c r="D326" s="18" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="E326" s="20">
         <v>10109</v>
@@ -21919,10 +21922,10 @@
         <v>341</v>
       </c>
       <c r="C327" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D327" s="18" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="E327" s="20">
         <v>4141</v>
@@ -21948,10 +21951,10 @@
         <v>341</v>
       </c>
       <c r="C328" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D328" s="18" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="E328" s="20">
         <v>2720</v>
@@ -21977,10 +21980,10 @@
         <v>341</v>
       </c>
       <c r="C329" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D329" s="18" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="E329" s="20">
         <v>1437</v>
@@ -22006,10 +22009,10 @@
         <v>341</v>
       </c>
       <c r="C330" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D330" s="18" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="E330" s="20">
         <v>1811</v>
@@ -22038,7 +22041,7 @@
         <v>57</v>
       </c>
       <c r="D331" s="18" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="E331" s="20">
         <v>29594</v>
@@ -22064,10 +22067,10 @@
         <v>341</v>
       </c>
       <c r="C332" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D332" s="18" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="E332" s="20">
         <v>5851</v>
@@ -22093,10 +22096,10 @@
         <v>341</v>
       </c>
       <c r="C333" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D333" s="18" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
       <c r="E333" s="20">
         <v>1717</v>
@@ -22122,10 +22125,10 @@
         <v>341</v>
       </c>
       <c r="C334" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D334" s="18" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="E334" s="20">
         <v>2021</v>
@@ -22151,10 +22154,10 @@
         <v>341</v>
       </c>
       <c r="C335" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D335" s="18" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
       <c r="E335" s="20">
         <v>2201</v>
@@ -22180,10 +22183,10 @@
         <v>341</v>
       </c>
       <c r="C336" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D336" s="18" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
       <c r="E336" s="20">
         <v>3220</v>
@@ -22209,10 +22212,10 @@
         <v>341</v>
       </c>
       <c r="C337" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D337" s="18" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="E337" s="20">
         <v>2793</v>
@@ -22238,10 +22241,10 @@
         <v>341</v>
       </c>
       <c r="C338" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D338" s="18" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
       <c r="E338" s="20">
         <v>1793</v>
@@ -22267,10 +22270,10 @@
         <v>341</v>
       </c>
       <c r="C339" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D339" s="18" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="E339" s="20">
         <v>3282</v>
@@ -22296,10 +22299,10 @@
         <v>341</v>
       </c>
       <c r="C340" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D340" s="18" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="E340" s="20">
         <v>4031</v>
@@ -22325,10 +22328,10 @@
         <v>341</v>
       </c>
       <c r="C341" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D341" s="18" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="E341" s="20">
         <v>2685</v>
@@ -22357,7 +22360,7 @@
         <v>33</v>
       </c>
       <c r="D342" s="18" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="E342" s="20">
         <v>12711</v>
@@ -22383,10 +22386,10 @@
         <v>341</v>
       </c>
       <c r="C343" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D343" s="18" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="E343" s="20">
         <v>4980</v>
@@ -22412,10 +22415,10 @@
         <v>341</v>
       </c>
       <c r="C344" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D344" s="18" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="E344" s="20">
         <v>2930</v>
@@ -22441,10 +22444,10 @@
         <v>341</v>
       </c>
       <c r="C345" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D345" s="18" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="E345" s="20">
         <v>1674</v>
@@ -22470,10 +22473,10 @@
         <v>341</v>
       </c>
       <c r="C346" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D346" s="18" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="E346" s="20">
         <v>3127</v>
@@ -22502,7 +22505,7 @@
         <v>39</v>
       </c>
       <c r="D347" s="18" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="E347" s="20">
         <v>34688</v>
@@ -22528,10 +22531,10 @@
         <v>341</v>
       </c>
       <c r="C348" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D348" s="18" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="E348" s="20">
         <v>10152</v>
@@ -22557,10 +22560,10 @@
         <v>341</v>
       </c>
       <c r="C349" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D349" s="18" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
       <c r="E349" s="20">
         <v>1643</v>
@@ -22586,10 +22589,10 @@
         <v>341</v>
       </c>
       <c r="C350" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D350" s="18" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="E350" s="20">
         <v>3125</v>
@@ -22615,10 +22618,10 @@
         <v>341</v>
       </c>
       <c r="C351" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D351" s="18" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="E351" s="20">
         <v>2575</v>
@@ -22644,10 +22647,10 @@
         <v>341</v>
       </c>
       <c r="C352" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D352" s="18" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="E352" s="20">
         <v>3087</v>
@@ -22673,10 +22676,10 @@
         <v>341</v>
       </c>
       <c r="C353" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D353" s="18" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
       <c r="E353" s="20">
         <v>2888</v>
@@ -22702,10 +22705,10 @@
         <v>341</v>
       </c>
       <c r="C354" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D354" s="18" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="E354" s="20">
         <v>2680</v>
@@ -22731,10 +22734,10 @@
         <v>341</v>
       </c>
       <c r="C355" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D355" s="18" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="E355" s="20">
         <v>2823</v>
@@ -22760,10 +22763,10 @@
         <v>341</v>
       </c>
       <c r="C356" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D356" s="18" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="E356" s="20">
         <v>2523</v>
@@ -22789,10 +22792,10 @@
         <v>341</v>
       </c>
       <c r="C357" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D357" s="18" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="E357" s="20">
         <v>3192</v>
@@ -22821,7 +22824,7 @@
         <v>35</v>
       </c>
       <c r="D358" s="18" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="E358" s="20">
         <v>3392</v>
@@ -22847,10 +22850,10 @@
         <v>341</v>
       </c>
       <c r="C359" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D359" s="18" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="E359" s="20">
         <v>1361</v>
@@ -22876,10 +22879,10 @@
         <v>341</v>
       </c>
       <c r="C360" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D360" s="18" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
       <c r="E360" s="19">
         <v>512</v>
@@ -22905,10 +22908,10 @@
         <v>341</v>
       </c>
       <c r="C361" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D361" s="18" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="E361" s="19">
         <v>708</v>
@@ -22934,10 +22937,10 @@
         <v>341</v>
       </c>
       <c r="C362" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D362" s="18" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="E362" s="19">
         <v>811</v>
@@ -22963,10 +22966,10 @@
         <v>341</v>
       </c>
       <c r="C363" s="18" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="D363" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="E363" s="19">
         <v>0</v>
@@ -22992,10 +22995,10 @@
         <v>413</v>
       </c>
       <c r="C364" s="18" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="D364" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="E364" s="20">
         <v>288686</v>
@@ -23021,10 +23024,10 @@
         <v>413</v>
       </c>
       <c r="C365" s="18" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="D365" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="E365" s="19">
         <v>550</v>
@@ -23050,10 +23053,10 @@
         <v>413</v>
       </c>
       <c r="C366" s="18" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="D366" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="E366" s="20">
         <v>30486</v>
@@ -23079,10 +23082,10 @@
         <v>413</v>
       </c>
       <c r="C367" s="18" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="D367" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="E367" s="20">
         <v>1484</v>
@@ -23111,7 +23114,7 @@
         <v>37</v>
       </c>
       <c r="D368" s="18" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="E368" s="20">
         <v>18256</v>
@@ -23137,10 +23140,10 @@
         <v>413</v>
       </c>
       <c r="C369" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D369" s="18" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="E369" s="20">
         <v>4508</v>
@@ -23166,10 +23169,10 @@
         <v>413</v>
       </c>
       <c r="C370" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D370" s="18" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="E370" s="20">
         <v>2797</v>
@@ -23195,10 +23198,10 @@
         <v>413</v>
       </c>
       <c r="C371" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D371" s="18" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
       <c r="E371" s="20">
         <v>2236</v>
@@ -23224,10 +23227,10 @@
         <v>413</v>
       </c>
       <c r="C372" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D372" s="18" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="E372" s="20">
         <v>2120</v>
@@ -23253,10 +23256,10 @@
         <v>413</v>
       </c>
       <c r="C373" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D373" s="18" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
       <c r="E373" s="19">
         <v>749</v>
@@ -23282,10 +23285,10 @@
         <v>413</v>
       </c>
       <c r="C374" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D374" s="18" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
       <c r="E374" s="19">
         <v>319</v>
@@ -23311,10 +23314,10 @@
         <v>413</v>
       </c>
       <c r="C375" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D375" s="18" t="s">
-        <v>1133</v>
+        <v>1131</v>
       </c>
       <c r="E375" s="19">
         <v>473</v>
@@ -23340,10 +23343,10 @@
         <v>413</v>
       </c>
       <c r="C376" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D376" s="18" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
       <c r="E376" s="20">
         <v>2593</v>
@@ -23369,10 +23372,10 @@
         <v>413</v>
       </c>
       <c r="C377" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D377" s="18" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
       <c r="E377" s="20">
         <v>2461</v>
@@ -23401,7 +23404,7 @@
         <v>61</v>
       </c>
       <c r="D378" s="18" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="E378" s="20">
         <v>23916</v>
@@ -23427,10 +23430,10 @@
         <v>413</v>
       </c>
       <c r="C379" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D379" s="18" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="E379" s="20">
         <v>7944</v>
@@ -23456,10 +23459,10 @@
         <v>413</v>
       </c>
       <c r="C380" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D380" s="18" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="E380" s="20">
         <v>3193</v>
@@ -23485,10 +23488,10 @@
         <v>413</v>
       </c>
       <c r="C381" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D381" s="18" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
       <c r="E381" s="20">
         <v>3724</v>
@@ -23514,10 +23517,10 @@
         <v>413</v>
       </c>
       <c r="C382" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D382" s="18" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
       <c r="E382" s="20">
         <v>3380</v>
@@ -23543,10 +23546,10 @@
         <v>413</v>
       </c>
       <c r="C383" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D383" s="18" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="E383" s="20">
         <v>3448</v>
@@ -23572,10 +23575,10 @@
         <v>413</v>
       </c>
       <c r="C384" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D384" s="18" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="E384" s="20">
         <v>2227</v>
@@ -23604,7 +23607,7 @@
         <v>51</v>
       </c>
       <c r="D385" s="18" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="E385" s="20">
         <v>27453</v>
@@ -23630,10 +23633,10 @@
         <v>413</v>
       </c>
       <c r="C386" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D386" s="18" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="E386" s="20">
         <v>6216</v>
@@ -23659,10 +23662,10 @@
         <v>413</v>
       </c>
       <c r="C387" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D387" s="18" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="E387" s="20">
         <v>2709</v>
@@ -23688,10 +23691,10 @@
         <v>413</v>
       </c>
       <c r="C388" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D388" s="18" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
       <c r="E388" s="20">
         <v>2497</v>
@@ -23717,10 +23720,10 @@
         <v>413</v>
       </c>
       <c r="C389" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D389" s="18" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
       <c r="E389" s="20">
         <v>2199</v>
@@ -23746,10 +23749,10 @@
         <v>413</v>
       </c>
       <c r="C390" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D390" s="18" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
       <c r="E390" s="20">
         <v>1444</v>
@@ -23775,10 +23778,10 @@
         <v>413</v>
       </c>
       <c r="C391" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D391" s="18" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
       <c r="E391" s="20">
         <v>1550</v>
@@ -23804,10 +23807,10 @@
         <v>413</v>
       </c>
       <c r="C392" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D392" s="18" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
       <c r="E392" s="20">
         <v>1820</v>
@@ -23833,10 +23836,10 @@
         <v>413</v>
       </c>
       <c r="C393" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D393" s="18" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="E393" s="20">
         <v>2782</v>
@@ -23862,10 +23865,10 @@
         <v>413</v>
       </c>
       <c r="C394" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D394" s="18" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
       <c r="E394" s="20">
         <v>2232</v>
@@ -23891,10 +23894,10 @@
         <v>413</v>
       </c>
       <c r="C395" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D395" s="18" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
       <c r="E395" s="20">
         <v>2150</v>
@@ -23920,10 +23923,10 @@
         <v>413</v>
       </c>
       <c r="C396" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D396" s="18" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="E396" s="20">
         <v>1854</v>
@@ -23952,7 +23955,7 @@
         <v>23</v>
       </c>
       <c r="D397" s="18" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="E397" s="20">
         <v>17366</v>
@@ -23978,10 +23981,10 @@
         <v>413</v>
       </c>
       <c r="C398" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D398" s="18" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="E398" s="20">
         <v>7450</v>
@@ -24007,10 +24010,10 @@
         <v>413</v>
       </c>
       <c r="C399" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D399" s="18" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="E399" s="20">
         <v>2151</v>
@@ -24036,10 +24039,10 @@
         <v>413</v>
       </c>
       <c r="C400" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D400" s="18" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="E400" s="20">
         <v>2174</v>
@@ -24065,10 +24068,10 @@
         <v>413</v>
       </c>
       <c r="C401" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D401" s="18" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="E401" s="20">
         <v>2995</v>
@@ -24094,10 +24097,10 @@
         <v>413</v>
       </c>
       <c r="C402" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D402" s="18" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
       <c r="E402" s="20">
         <v>2596</v>
@@ -24126,7 +24129,7 @@
         <v>17</v>
       </c>
       <c r="D403" s="18" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="E403" s="20">
         <v>15939</v>
@@ -24152,10 +24155,10 @@
         <v>413</v>
       </c>
       <c r="C404" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D404" s="18" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="E404" s="20">
         <v>4445</v>
@@ -24181,10 +24184,10 @@
         <v>413</v>
       </c>
       <c r="C405" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D405" s="18" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="E405" s="20">
         <v>2804</v>
@@ -24210,10 +24213,10 @@
         <v>413</v>
       </c>
       <c r="C406" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D406" s="18" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
       <c r="E406" s="20">
         <v>2986</v>
@@ -24239,10 +24242,10 @@
         <v>413</v>
       </c>
       <c r="C407" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D407" s="18" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
       <c r="E407" s="20">
         <v>2161</v>
@@ -24268,10 +24271,10 @@
         <v>413</v>
       </c>
       <c r="C408" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D408" s="18" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
       <c r="E408" s="20">
         <v>2234</v>
@@ -24297,10 +24300,10 @@
         <v>413</v>
       </c>
       <c r="C409" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D409" s="18" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="E409" s="20">
         <v>1309</v>
@@ -24329,7 +24332,7 @@
         <v>45</v>
       </c>
       <c r="D410" s="18" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="E410" s="20">
         <v>18643</v>
@@ -24355,10 +24358,10 @@
         <v>413</v>
       </c>
       <c r="C411" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D411" s="18" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="E411" s="20">
         <v>6962</v>
@@ -24384,10 +24387,10 @@
         <v>413</v>
       </c>
       <c r="C412" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D412" s="18" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="E412" s="20">
         <v>1471</v>
@@ -24413,10 +24416,10 @@
         <v>413</v>
       </c>
       <c r="C413" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D413" s="18" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
       <c r="E413" s="20">
         <v>2623</v>
@@ -24442,10 +24445,10 @@
         <v>413</v>
       </c>
       <c r="C414" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D414" s="18" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
       <c r="E414" s="20">
         <v>2227</v>
@@ -24471,10 +24474,10 @@
         <v>413</v>
       </c>
       <c r="C415" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D415" s="18" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
       <c r="E415" s="20">
         <v>1778</v>
@@ -24500,10 +24503,10 @@
         <v>413</v>
       </c>
       <c r="C416" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D416" s="18" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
       <c r="E416" s="20">
         <v>1632</v>
@@ -24529,10 +24532,10 @@
         <v>413</v>
       </c>
       <c r="C417" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D417" s="18" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="E417" s="20">
         <v>1950</v>
@@ -24561,7 +24564,7 @@
         <v>19</v>
       </c>
       <c r="D418" s="18" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="E418" s="20">
         <v>19699</v>
@@ -24587,10 +24590,10 @@
         <v>413</v>
       </c>
       <c r="C419" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D419" s="18" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="E419" s="20">
         <v>7070</v>
@@ -24616,10 +24619,10 @@
         <v>413</v>
       </c>
       <c r="C420" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D420" s="18" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
       <c r="E420" s="20">
         <v>1985</v>
@@ -24645,10 +24648,10 @@
         <v>413</v>
       </c>
       <c r="C421" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D421" s="18" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="E421" s="20">
         <v>2544</v>
@@ -24674,10 +24677,10 @@
         <v>413</v>
       </c>
       <c r="C422" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D422" s="18" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="E422" s="20">
         <v>1870</v>
@@ -24703,10 +24706,10 @@
         <v>413</v>
       </c>
       <c r="C423" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D423" s="18" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="E423" s="20">
         <v>1851</v>
@@ -24732,10 +24735,10 @@
         <v>413</v>
       </c>
       <c r="C424" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D424" s="18" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
       <c r="E424" s="20">
         <v>2247</v>
@@ -24761,10 +24764,10 @@
         <v>413</v>
       </c>
       <c r="C425" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D425" s="18" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
       <c r="E425" s="20">
         <v>2132</v>
@@ -24793,7 +24796,7 @@
         <v>15</v>
       </c>
       <c r="D426" s="18" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="E426" s="20">
         <v>20140</v>
@@ -24819,10 +24822,10 @@
         <v>413</v>
       </c>
       <c r="C427" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D427" s="18" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="E427" s="20">
         <v>6429</v>
@@ -24848,10 +24851,10 @@
         <v>413</v>
       </c>
       <c r="C428" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D428" s="18" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
       <c r="E428" s="20">
         <v>1227</v>
@@ -24877,10 +24880,10 @@
         <v>413</v>
       </c>
       <c r="C429" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D429" s="18" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
       <c r="E429" s="19">
         <v>275</v>
@@ -24906,10 +24909,10 @@
         <v>413</v>
       </c>
       <c r="C430" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D430" s="18" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
       <c r="E430" s="20">
         <v>1830</v>
@@ -24935,10 +24938,10 @@
         <v>413</v>
       </c>
       <c r="C431" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D431" s="18" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
       <c r="E431" s="20">
         <v>2659</v>
@@ -24964,10 +24967,10 @@
         <v>413</v>
       </c>
       <c r="C432" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D432" s="18" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
       <c r="E432" s="20">
         <v>2485</v>
@@ -24993,10 +24996,10 @@
         <v>413</v>
       </c>
       <c r="C433" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D433" s="18" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
       <c r="E433" s="20">
         <v>2405</v>
@@ -25022,10 +25025,10 @@
         <v>413</v>
       </c>
       <c r="C434" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D434" s="18" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
       <c r="E434" s="20">
         <v>2830</v>
@@ -25054,7 +25057,7 @@
         <v>21</v>
       </c>
       <c r="D435" s="18" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="E435" s="20">
         <v>20577</v>
@@ -25080,10 +25083,10 @@
         <v>413</v>
       </c>
       <c r="C436" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D436" s="18" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="E436" s="20">
         <v>7762</v>
@@ -25109,10 +25112,10 @@
         <v>413</v>
       </c>
       <c r="C437" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D437" s="18" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
       <c r="E437" s="20">
         <v>2209</v>
@@ -25138,10 +25141,10 @@
         <v>413</v>
       </c>
       <c r="C438" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D438" s="18" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
       <c r="E438" s="20">
         <v>2457</v>
@@ -25167,10 +25170,10 @@
         <v>413</v>
       </c>
       <c r="C439" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D439" s="18" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
       <c r="E439" s="20">
         <v>2488</v>
@@ -25196,10 +25199,10 @@
         <v>413</v>
       </c>
       <c r="C440" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D440" s="18" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
       <c r="E440" s="20">
         <v>2597</v>
@@ -25225,10 +25228,10 @@
         <v>413</v>
       </c>
       <c r="C441" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D441" s="18" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
       <c r="E441" s="20">
         <v>3064</v>
@@ -25257,7 +25260,7 @@
         <v>55</v>
       </c>
       <c r="D442" s="18" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="E442" s="20">
         <v>20698</v>
@@ -25283,10 +25286,10 @@
         <v>413</v>
       </c>
       <c r="C443" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D443" s="18" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="E443" s="20">
         <v>6742</v>
@@ -25312,10 +25315,10 @@
         <v>413</v>
       </c>
       <c r="C444" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D444" s="18" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
       <c r="E444" s="20">
         <v>2849</v>
@@ -25341,10 +25344,10 @@
         <v>413</v>
       </c>
       <c r="C445" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D445" s="18" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="E445" s="20">
         <v>2507</v>
@@ -25370,10 +25373,10 @@
         <v>413</v>
       </c>
       <c r="C446" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D446" s="18" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="E446" s="20">
         <v>1905</v>
@@ -25399,10 +25402,10 @@
         <v>413</v>
       </c>
       <c r="C447" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D447" s="18" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
       <c r="E447" s="20">
         <v>3380</v>
@@ -25428,10 +25431,10 @@
         <v>413</v>
       </c>
       <c r="C448" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D448" s="18" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
       <c r="E448" s="20">
         <v>3315</v>
@@ -25460,7 +25463,7 @@
         <v>13</v>
       </c>
       <c r="D449" s="18" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="E449" s="20">
         <v>25788</v>
@@ -25486,10 +25489,10 @@
         <v>413</v>
       </c>
       <c r="C450" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D450" s="18" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="E450" s="20">
         <v>8607</v>
@@ -25515,10 +25518,10 @@
         <v>413</v>
       </c>
       <c r="C451" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D451" s="18" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
       <c r="E451" s="20">
         <v>1989</v>
@@ -25544,10 +25547,10 @@
         <v>413</v>
       </c>
       <c r="C452" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D452" s="18" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="E452" s="20">
         <v>2958</v>
@@ -25573,10 +25576,10 @@
         <v>413</v>
       </c>
       <c r="C453" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D453" s="18" t="s">
-        <v>1191</v>
+        <v>1189</v>
       </c>
       <c r="E453" s="20">
         <v>1809</v>
@@ -25602,10 +25605,10 @@
         <v>413</v>
       </c>
       <c r="C454" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D454" s="18" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="E454" s="20">
         <v>1796</v>
@@ -25631,10 +25634,10 @@
         <v>413</v>
       </c>
       <c r="C455" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D455" s="18" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
       <c r="E455" s="20">
         <v>2398</v>
@@ -25660,10 +25663,10 @@
         <v>413</v>
       </c>
       <c r="C456" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D456" s="18" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
       <c r="E456" s="20">
         <v>1885</v>
@@ -25689,10 +25692,10 @@
         <v>413</v>
       </c>
       <c r="C457" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D457" s="18" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="E457" s="20">
         <v>2360</v>
@@ -25718,10 +25721,10 @@
         <v>413</v>
       </c>
       <c r="C458" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D458" s="18" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
       <c r="E458" s="20">
         <v>1986</v>
@@ -25750,7 +25753,7 @@
         <v>432</v>
       </c>
       <c r="D459" s="18" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="E459" s="20">
         <v>12502</v>
@@ -25776,10 +25779,10 @@
         <v>413</v>
       </c>
       <c r="C460" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D460" s="18" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="E460" s="20">
         <v>4141</v>
@@ -25805,10 +25808,10 @@
         <v>413</v>
       </c>
       <c r="C461" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D461" s="18" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="E461" s="20">
         <v>2023</v>
@@ -25834,10 +25837,10 @@
         <v>413</v>
       </c>
       <c r="C462" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D462" s="18" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="E462" s="20">
         <v>2116</v>
@@ -25863,10 +25866,10 @@
         <v>413</v>
       </c>
       <c r="C463" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D463" s="18" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="E463" s="20">
         <v>2134</v>
@@ -25892,10 +25895,10 @@
         <v>413</v>
       </c>
       <c r="C464" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D464" s="18" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
       <c r="E464" s="20">
         <v>2088</v>
@@ -25924,7 +25927,7 @@
         <v>442</v>
       </c>
       <c r="D465" s="18" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="E465" s="20">
         <v>15189</v>
@@ -25950,10 +25953,10 @@
         <v>413</v>
       </c>
       <c r="C466" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D466" s="18" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="E466" s="20">
         <v>4217</v>
@@ -25979,10 +25982,10 @@
         <v>413</v>
       </c>
       <c r="C467" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D467" s="18" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="E467" s="20">
         <v>2602</v>
@@ -26008,10 +26011,10 @@
         <v>413</v>
       </c>
       <c r="C468" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D468" s="18" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
       <c r="E468" s="20">
         <v>2682</v>
@@ -26037,10 +26040,10 @@
         <v>413</v>
       </c>
       <c r="C469" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D469" s="18" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
       <c r="E469" s="20">
         <v>2408</v>
@@ -26066,10 +26069,10 @@
         <v>413</v>
       </c>
       <c r="C470" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D470" s="18" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="E470" s="20">
         <v>3280</v>
@@ -26095,10 +26098,10 @@
         <v>413</v>
       </c>
       <c r="C471" s="18" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="D471" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="E471" s="19">
         <v>0</v>
@@ -26124,10 +26127,10 @@
         <v>534</v>
       </c>
       <c r="C472" s="18" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="D472" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="E472" s="20">
         <v>152905</v>
@@ -26153,10 +26156,10 @@
         <v>534</v>
       </c>
       <c r="C473" s="18" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="D473" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="E473" s="19">
         <v>270</v>
@@ -26182,10 +26185,10 @@
         <v>534</v>
       </c>
       <c r="C474" s="18" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="D474" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="E474" s="20">
         <v>13738</v>
@@ -26211,10 +26214,10 @@
         <v>534</v>
       </c>
       <c r="C475" s="18" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="D475" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="E475" s="19">
         <v>425</v>
@@ -26243,7 +26246,7 @@
         <v>123</v>
       </c>
       <c r="D476" s="18" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="E476" s="20">
         <v>11345</v>
@@ -26269,10 +26272,10 @@
         <v>534</v>
       </c>
       <c r="C477" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D477" s="18" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="E477" s="20">
         <v>2576</v>
@@ -26298,10 +26301,10 @@
         <v>534</v>
       </c>
       <c r="C478" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D478" s="18" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="E478" s="20">
         <v>1605</v>
@@ -26327,10 +26330,10 @@
         <v>534</v>
       </c>
       <c r="C479" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D479" s="18" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="E479" s="19">
         <v>911</v>
@@ -26356,10 +26359,10 @@
         <v>534</v>
       </c>
       <c r="C480" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D480" s="18" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="E480" s="20">
         <v>1542</v>
@@ -26385,10 +26388,10 @@
         <v>534</v>
       </c>
       <c r="C481" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D481" s="18" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="E481" s="20">
         <v>1364</v>
@@ -26414,10 +26417,10 @@
         <v>534</v>
       </c>
       <c r="C482" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D482" s="18" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
       <c r="E482" s="20">
         <v>1998</v>
@@ -26443,10 +26446,10 @@
         <v>534</v>
       </c>
       <c r="C483" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D483" s="18" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
       <c r="E483" s="20">
         <v>1349</v>
@@ -26475,7 +26478,7 @@
         <v>43</v>
       </c>
       <c r="D484" s="18" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="E484" s="20">
         <v>6021</v>
@@ -26501,10 +26504,10 @@
         <v>534</v>
       </c>
       <c r="C485" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D485" s="18" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="E485" s="20">
         <v>1710</v>
@@ -26530,10 +26533,10 @@
         <v>534</v>
       </c>
       <c r="C486" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D486" s="18" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
       <c r="E486" s="20">
         <v>1462</v>
@@ -26559,10 +26562,10 @@
         <v>534</v>
       </c>
       <c r="C487" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D487" s="18" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="E487" s="20">
         <v>1003</v>
@@ -26588,10 +26591,10 @@
         <v>534</v>
       </c>
       <c r="C488" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D488" s="18" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
       <c r="E488" s="20">
         <v>1846</v>
@@ -26620,7 +26623,7 @@
         <v>119</v>
       </c>
       <c r="D489" s="18" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="E489" s="20">
         <v>9689</v>
@@ -26646,10 +26649,10 @@
         <v>534</v>
       </c>
       <c r="C490" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D490" s="18" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="E490" s="20">
         <v>2233</v>
@@ -26675,10 +26678,10 @@
         <v>534</v>
       </c>
       <c r="C491" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D491" s="18" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
       <c r="E491" s="20">
         <v>1536</v>
@@ -26704,10 +26707,10 @@
         <v>534</v>
       </c>
       <c r="C492" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D492" s="18" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="E492" s="20">
         <v>1793</v>
@@ -26733,10 +26736,10 @@
         <v>534</v>
       </c>
       <c r="C493" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D493" s="18" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="E493" s="20">
         <v>1469</v>
@@ -26762,10 +26765,10 @@
         <v>534</v>
       </c>
       <c r="C494" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D494" s="18" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
       <c r="E494" s="20">
         <v>2248</v>
@@ -26791,10 +26794,10 @@
         <v>534</v>
       </c>
       <c r="C495" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D495" s="18" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
       <c r="E495" s="19">
         <v>410</v>
@@ -26823,7 +26826,7 @@
         <v>127</v>
       </c>
       <c r="D496" s="18" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="E496" s="20">
         <v>13138</v>
@@ -26849,10 +26852,10 @@
         <v>534</v>
       </c>
       <c r="C497" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D497" s="18" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="E497" s="20">
         <v>3727</v>
@@ -26878,10 +26881,10 @@
         <v>534</v>
       </c>
       <c r="C498" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D498" s="18" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
       <c r="E498" s="20">
         <v>1876</v>
@@ -26907,10 +26910,10 @@
         <v>534</v>
       </c>
       <c r="C499" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D499" s="18" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
       <c r="E499" s="20">
         <v>1674</v>
@@ -26936,10 +26939,10 @@
         <v>534</v>
       </c>
       <c r="C500" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D500" s="18" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="E500" s="20">
         <v>1992</v>
@@ -26965,10 +26968,10 @@
         <v>534</v>
       </c>
       <c r="C501" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D501" s="18" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
       <c r="E501" s="20">
         <v>2117</v>
@@ -26994,10 +26997,10 @@
         <v>534</v>
       </c>
       <c r="C502" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D502" s="18" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="E502" s="20">
         <v>1752</v>
@@ -27026,7 +27029,7 @@
         <v>129</v>
       </c>
       <c r="D503" s="18" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="E503" s="20">
         <v>20285</v>
@@ -27052,10 +27055,10 @@
         <v>534</v>
       </c>
       <c r="C504" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D504" s="18" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="E504" s="20">
         <v>6470</v>
@@ -27081,10 +27084,10 @@
         <v>534</v>
       </c>
       <c r="C505" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D505" s="18" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
       <c r="E505" s="20">
         <v>2281</v>
@@ -27110,10 +27113,10 @@
         <v>534</v>
       </c>
       <c r="C506" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D506" s="18" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="E506" s="20">
         <v>2324</v>
@@ -27139,10 +27142,10 @@
         <v>534</v>
       </c>
       <c r="C507" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D507" s="18" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="E507" s="20">
         <v>2251</v>
@@ -27168,10 +27171,10 @@
         <v>534</v>
       </c>
       <c r="C508" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D508" s="18" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="E508" s="20">
         <v>2460</v>
@@ -27197,10 +27200,10 @@
         <v>534</v>
       </c>
       <c r="C509" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D509" s="18" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
       <c r="E509" s="20">
         <v>2234</v>
@@ -27226,10 +27229,10 @@
         <v>534</v>
       </c>
       <c r="C510" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D510" s="18" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="E510" s="20">
         <v>2265</v>
@@ -27258,7 +27261,7 @@
         <v>121</v>
       </c>
       <c r="D511" s="18" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="E511" s="20">
         <v>15352</v>
@@ -27284,10 +27287,10 @@
         <v>534</v>
       </c>
       <c r="C512" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D512" s="18" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="E512" s="20">
         <v>3430</v>
@@ -27313,10 +27316,10 @@
         <v>534</v>
       </c>
       <c r="C513" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D513" s="18" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="E513" s="20">
         <v>1677</v>
@@ -27342,10 +27345,10 @@
         <v>534</v>
       </c>
       <c r="C514" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D514" s="18" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="E514" s="20">
         <v>1352</v>
@@ -27371,10 +27374,10 @@
         <v>534</v>
       </c>
       <c r="C515" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D515" s="18" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="E515" s="20">
         <v>2062</v>
@@ -27400,10 +27403,10 @@
         <v>534</v>
       </c>
       <c r="C516" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D516" s="18" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="E516" s="20">
         <v>1770</v>
@@ -27429,10 +27432,10 @@
         <v>534</v>
       </c>
       <c r="C517" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D517" s="18" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="E517" s="20">
         <v>1791</v>
@@ -27458,10 +27461,10 @@
         <v>534</v>
       </c>
       <c r="C518" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D518" s="18" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="E518" s="20">
         <v>1674</v>
@@ -27487,10 +27490,10 @@
         <v>534</v>
       </c>
       <c r="C519" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D519" s="18" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
       <c r="E519" s="20">
         <v>1596</v>
@@ -27519,7 +27522,7 @@
         <v>7</v>
       </c>
       <c r="D520" s="18" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="E520" s="20">
         <v>10121</v>
@@ -27545,10 +27548,10 @@
         <v>534</v>
       </c>
       <c r="C521" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D521" s="18" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="E521" s="20">
         <v>3053</v>
@@ -27574,10 +27577,10 @@
         <v>534</v>
       </c>
       <c r="C522" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D522" s="18" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
       <c r="E522" s="20">
         <v>2487</v>
@@ -27603,10 +27606,10 @@
         <v>534</v>
       </c>
       <c r="C523" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D523" s="18" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
       <c r="E523" s="20">
         <v>2182</v>
@@ -27632,10 +27635,10 @@
         <v>534</v>
       </c>
       <c r="C524" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D524" s="18" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
       <c r="E524" s="20">
         <v>2399</v>
@@ -27664,7 +27667,7 @@
         <v>117</v>
       </c>
       <c r="D525" s="18" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="E525" s="20">
         <v>12842</v>
@@ -27690,10 +27693,10 @@
         <v>534</v>
       </c>
       <c r="C526" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D526" s="18" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="E526" s="20">
         <v>4018</v>
@@ -27719,10 +27722,10 @@
         <v>534</v>
       </c>
       <c r="C527" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D527" s="18" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
       <c r="E527" s="20">
         <v>1624</v>
@@ -27748,10 +27751,10 @@
         <v>534</v>
       </c>
       <c r="C528" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D528" s="18" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
       <c r="E528" s="20">
         <v>2284</v>
@@ -27777,10 +27780,10 @@
         <v>534</v>
       </c>
       <c r="C529" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D529" s="18" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
       <c r="E529" s="20">
         <v>2524</v>
@@ -27806,10 +27809,10 @@
         <v>534</v>
       </c>
       <c r="C530" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D530" s="18" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="E530" s="19">
         <v>537</v>
@@ -27835,10 +27838,10 @@
         <v>534</v>
       </c>
       <c r="C531" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D531" s="18" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="E531" s="20">
         <v>1855</v>
@@ -27867,7 +27870,7 @@
         <v>115</v>
       </c>
       <c r="D532" s="18" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="E532" s="20">
         <v>11289</v>
@@ -27893,10 +27896,10 @@
         <v>534</v>
       </c>
       <c r="C533" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D533" s="18" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="E533" s="20">
         <v>3415</v>
@@ -27922,10 +27925,10 @@
         <v>534</v>
       </c>
       <c r="C534" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D534" s="18" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="E534" s="20">
         <v>1812</v>
@@ -27951,10 +27954,10 @@
         <v>534</v>
       </c>
       <c r="C535" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D535" s="18" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
       <c r="E535" s="20">
         <v>1892</v>
@@ -27980,10 +27983,10 @@
         <v>534</v>
       </c>
       <c r="C536" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D536" s="18" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
       <c r="E536" s="20">
         <v>2212</v>
@@ -28009,10 +28012,10 @@
         <v>534</v>
       </c>
       <c r="C537" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D537" s="18" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="E537" s="19">
         <v>349</v>
@@ -28038,10 +28041,10 @@
         <v>534</v>
       </c>
       <c r="C538" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D538" s="18" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="E538" s="20">
         <v>1609</v>
@@ -28070,7 +28073,7 @@
         <v>5</v>
       </c>
       <c r="D539" s="18" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="E539" s="20">
         <v>11816</v>
@@ -28096,10 +28099,10 @@
         <v>534</v>
       </c>
       <c r="C540" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D540" s="18" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="E540" s="20">
         <v>3359</v>
@@ -28125,10 +28128,10 @@
         <v>534</v>
       </c>
       <c r="C541" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D541" s="18" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="E541" s="20">
         <v>1833</v>
@@ -28154,10 +28157,10 @@
         <v>534</v>
       </c>
       <c r="C542" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D542" s="18" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="E542" s="20">
         <v>1153</v>
@@ -28183,10 +28186,10 @@
         <v>534</v>
       </c>
       <c r="C543" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D543" s="18" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="E543" s="20">
         <v>3344</v>
@@ -28212,10 +28215,10 @@
         <v>534</v>
       </c>
       <c r="C544" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D544" s="18" t="s">
-        <v>1253</v>
+        <v>1251</v>
       </c>
       <c r="E544" s="20">
         <v>2127</v>
@@ -28244,7 +28247,7 @@
         <v>9</v>
       </c>
       <c r="D545" s="18" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="E545" s="20">
         <v>11145</v>
@@ -28270,10 +28273,10 @@
         <v>534</v>
       </c>
       <c r="C546" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D546" s="18" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="E546" s="20">
         <v>3273</v>
@@ -28299,10 +28302,10 @@
         <v>534</v>
       </c>
       <c r="C547" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D547" s="18" t="s">
-        <v>1254</v>
+        <v>1252</v>
       </c>
       <c r="E547" s="20">
         <v>2132</v>
@@ -28328,10 +28331,10 @@
         <v>534</v>
       </c>
       <c r="C548" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D548" s="18" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
       <c r="E548" s="20">
         <v>2747</v>
@@ -28357,10 +28360,10 @@
         <v>534</v>
       </c>
       <c r="C549" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D549" s="18" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="E549" s="20">
         <v>2386</v>
@@ -28386,10 +28389,10 @@
         <v>534</v>
       </c>
       <c r="C550" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D550" s="18" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
       <c r="E550" s="19">
         <v>607</v>
@@ -28418,7 +28421,7 @@
         <v>11</v>
       </c>
       <c r="D551" s="18" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="E551" s="20">
         <v>5429</v>
@@ -28444,10 +28447,10 @@
         <v>534</v>
       </c>
       <c r="C552" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D552" s="18" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="E552" s="20">
         <v>1873</v>
@@ -28473,10 +28476,10 @@
         <v>534</v>
       </c>
       <c r="C553" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D553" s="18" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="E553" s="20">
         <v>1872</v>
@@ -28502,10 +28505,10 @@
         <v>534</v>
       </c>
       <c r="C554" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D554" s="18" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="E554" s="20">
         <v>1684</v>
@@ -28531,10 +28534,10 @@
         <v>534</v>
       </c>
       <c r="C555" s="18" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="D555" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="E555" s="19">
         <v>0</v>
@@ -28575,7 +28578,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="26.25" thickBot="1">
       <c r="A1" s="5" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -28590,13 +28593,13 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="6" t="s">
+        <v>669</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>670</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="C2" s="7" t="s">
         <v>671</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>672</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>167</v>
@@ -28611,19 +28614,19 @@
     </row>
     <row r="3" spans="1:10" ht="14.25" customHeight="1">
       <c r="A3" s="9" t="s">
+        <v>672</v>
+      </c>
+      <c r="B3" s="10" t="s">
         <v>673</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="C3" s="10" t="s">
+        <v>672</v>
+      </c>
+      <c r="D3" s="11" t="s">
         <v>674</v>
       </c>
-      <c r="C3" s="10" t="s">
-        <v>673</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>675</v>
-      </c>
       <c r="E3" s="11" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="I3" s="3"/>
       <c r="J3" s="3">
@@ -28632,19 +28635,19 @@
     </row>
     <row r="4" spans="1:10" ht="45" customHeight="1">
       <c r="A4" s="9" t="s">
+        <v>675</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>673</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>675</v>
+      </c>
+      <c r="D4" s="11" t="s">
         <v>676</v>
       </c>
-      <c r="B4" s="10" t="s">
-        <v>674</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>676</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>677</v>
-      </c>
       <c r="E4" s="11" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>137</v>
@@ -28655,19 +28658,19 @@
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1">
       <c r="A5" s="9" t="s">
+        <v>677</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>673</v>
+      </c>
+      <c r="C5" s="10" t="s">
         <v>678</v>
       </c>
-      <c r="B5" s="10" t="s">
-        <v>674</v>
-      </c>
-      <c r="C5" s="10" t="s">
+      <c r="D5" s="11" t="s">
         <v>679</v>
       </c>
-      <c r="D5" s="11" t="s">
-        <v>680</v>
-      </c>
       <c r="E5" s="11" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>137</v>
@@ -28678,19 +28681,19 @@
     </row>
     <row r="6" spans="1:10" ht="46.5" customHeight="1">
       <c r="A6" s="9" t="s">
+        <v>680</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>673</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>678</v>
+      </c>
+      <c r="D6" s="11" t="s">
         <v>681</v>
       </c>
-      <c r="B6" s="10" t="s">
-        <v>674</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>679</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>682</v>
-      </c>
       <c r="E6" s="11" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>137</v>
@@ -28701,19 +28704,19 @@
     </row>
     <row r="7" spans="1:10" ht="16.5" customHeight="1">
       <c r="A7" s="9" t="s">
+        <v>682</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>673</v>
+      </c>
+      <c r="C7" s="10" t="s">
         <v>683</v>
       </c>
-      <c r="B7" s="10" t="s">
-        <v>674</v>
-      </c>
-      <c r="C7" s="10" t="s">
+      <c r="D7" s="11" t="s">
         <v>684</v>
       </c>
-      <c r="D7" s="11" t="s">
-        <v>685</v>
-      </c>
       <c r="E7" s="11" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>137</v>
@@ -28724,19 +28727,19 @@
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1">
       <c r="A8" s="9" t="s">
+        <v>685</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>673</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>683</v>
+      </c>
+      <c r="D8" s="11" t="s">
         <v>686</v>
       </c>
-      <c r="B8" s="10" t="s">
-        <v>674</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>684</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>687</v>
-      </c>
       <c r="E8" s="11" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>137</v>
@@ -28747,19 +28750,19 @@
     </row>
     <row r="9" spans="1:10" ht="14.25" customHeight="1">
       <c r="A9" s="9" t="s">
+        <v>687</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>673</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>687</v>
+      </c>
+      <c r="D9" s="11" t="s">
         <v>688</v>
       </c>
-      <c r="B9" s="10" t="s">
-        <v>674</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>688</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>689</v>
-      </c>
       <c r="E9" s="11" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>155</v>
